--- a/Orange.xlsx
+++ b/Orange.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302934\Desktop\Srs\testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302880\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2288DDEE-1D94-46CE-A069-B9C8D6ECF69A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DF4F4C-62D0-4B61-A127-514C327C3E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{2E6A2184-8419-4B30-A13E-A1B5190D2FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{2E6A2184-8419-4B30-A13E-A1B5190D2FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="625">
   <si>
     <t>Issue Type</t>
   </si>
@@ -2153,6 +2153,38 @@
   </si>
   <si>
     <t>OrangeHRM page</t>
+  </si>
+  <si>
+    <t>Apply Leave</t>
+  </si>
+  <si>
+    <t>System accepts incorrect date order.</t>
+  </si>
+  <si>
+    <t>No validation when From Date To Date</t>
+  </si>
+  <si>
+    <t>DF_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Go to Apply Leave.                                                                2. Select From Date previous Month.                         3.Click apply               </t>
+  </si>
+  <si>
+    <t>DF_07</t>
+  </si>
+  <si>
+    <t>System allows duplicate leave type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.  Configure → Leave Types.
+2. Enter existing leave type name again.
+3. Save.           </t>
+  </si>
+  <si>
+    <t>Admin can create duplicate leave types</t>
+  </si>
+  <si>
+    <t>Leave Configuration</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2594,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2687,16 +2719,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2706,31 +2759,28 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2756,34 +2806,8 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3149,6 +3173,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3397250</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>527049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6C324C9-BCEB-473C-9B80-9890BF61E717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11010900" y="6076950"/>
+          <a:ext cx="3397250" cy="527049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3746500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88931A50-52D8-5A1F-4555-B8EB2BF6FC38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11569700" y="6718300"/>
+          <a:ext cx="3778250" cy="609600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3497,11 +3609,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3569,11 +3681,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
@@ -3640,11 +3752,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
@@ -3719,11 +3831,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3783,11 +3895,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="54" t="s">
+      <c r="A45" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
@@ -4870,7 +4982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A9CE4C-2A62-44A6-B5F2-44C102142D8D}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A74" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I78" sqref="I78:I79"/>
     </sheetView>
   </sheetViews>
@@ -4885,37 +4997,36 @@
     <col min="7" max="7" width="22.1796875" customWidth="1"/>
     <col min="8" max="8" width="18.08984375" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="78"/>
+    <col min="10" max="10" width="8.7265625" style="54"/>
     <col min="12" max="12" width="8.7265625" style="45"/>
-    <col min="13" max="16384" width="8.7265625" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="G1" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="72" t="s">
         <v>103</v>
       </c>
       <c r="J1" s="47" t="s">
@@ -4926,15 +5037,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="70"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
       <c r="J2" s="48" t="s">
         <v>105</v>
       </c>
@@ -4943,16 +5054,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="69" t="s">
         <v>463</v>
       </c>
       <c r="E3">
@@ -4970,15 +5081,15 @@
       <c r="I3" t="s">
         <v>386</v>
       </c>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="64" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="66"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -4994,13 +5105,13 @@
       <c r="I4" t="s">
         <v>387</v>
       </c>
-      <c r="J4" s="57"/>
+      <c r="J4" s="62"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="59"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="66"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -5016,13 +5127,13 @@
       <c r="I5" t="s">
         <v>388</v>
       </c>
-      <c r="J5" s="57"/>
+      <c r="J5" s="62"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="66"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -5038,13 +5149,13 @@
       <c r="I6" t="s">
         <v>389</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="62"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="59"/>
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="66"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -5060,13 +5171,13 @@
       <c r="I7" t="s">
         <v>390</v>
       </c>
-      <c r="J7" s="57"/>
+      <c r="J7" s="62"/>
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="60"/>
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="25">
         <v>6</v>
       </c>
@@ -5080,20 +5191,20 @@
       <c r="I8" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="J8" s="56"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="69" t="s">
         <v>464</v>
       </c>
       <c r="E9">
@@ -5111,15 +5222,15 @@
       <c r="I9" t="s">
         <v>397</v>
       </c>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="64" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="65"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="74"/>
       <c r="E10">
         <v>2</v>
       </c>
@@ -5135,13 +5246,13 @@
       <c r="I10" t="s">
         <v>387</v>
       </c>
-      <c r="J10" s="57"/>
+      <c r="J10" s="62"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="65"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="74"/>
       <c r="E11">
         <v>3</v>
       </c>
@@ -5157,13 +5268,13 @@
       <c r="I11" t="s">
         <v>398</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="62"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="57"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="65"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="74"/>
       <c r="E12">
         <v>4</v>
       </c>
@@ -5179,13 +5290,13 @@
       <c r="I12" t="s">
         <v>396</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="57"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="65"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="74"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -5201,13 +5312,13 @@
       <c r="I13" t="s">
         <v>390</v>
       </c>
-      <c r="J13" s="57"/>
+      <c r="J13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="66"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="25">
         <v>6</v>
       </c>
@@ -5221,20 +5332,20 @@
       <c r="I14" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="J14" s="56"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="69" t="s">
         <v>465</v>
       </c>
       <c r="E15">
@@ -5252,15 +5363,15 @@
       <c r="I15" t="s">
         <v>386</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="64" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="65"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="74"/>
       <c r="E16">
         <v>2</v>
       </c>
@@ -5276,13 +5387,13 @@
       <c r="I16" t="s">
         <v>387</v>
       </c>
-      <c r="J16" s="57"/>
+      <c r="J16" s="62"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="65"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="74"/>
       <c r="E17">
         <v>3</v>
       </c>
@@ -5298,13 +5409,13 @@
       <c r="I17" t="s">
         <v>388</v>
       </c>
-      <c r="J17" s="57"/>
+      <c r="J17" s="62"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="65"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="74"/>
       <c r="E18">
         <v>4</v>
       </c>
@@ -5320,13 +5431,13 @@
       <c r="I18" t="s">
         <v>400</v>
       </c>
-      <c r="J18" s="57"/>
+      <c r="J18" s="62"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="65"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="74"/>
       <c r="E19">
         <v>5</v>
       </c>
@@ -5342,13 +5453,13 @@
       <c r="I19" t="s">
         <v>390</v>
       </c>
-      <c r="J19" s="57"/>
+      <c r="J19" s="62"/>
     </row>
     <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="66"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="25">
         <v>6</v>
       </c>
@@ -5362,20 +5473,20 @@
       <c r="I20" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="J20" s="56"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="64" t="s">
+      <c r="D21" s="69" t="s">
         <v>128</v>
       </c>
       <c r="E21">
@@ -5393,15 +5504,15 @@
       <c r="I21" t="s">
         <v>386</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="64" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="65"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="74"/>
       <c r="E22">
         <v>2</v>
       </c>
@@ -5417,13 +5528,13 @@
       <c r="I22" t="s">
         <v>387</v>
       </c>
-      <c r="J22" s="57"/>
+      <c r="J22" s="62"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="65"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="74"/>
       <c r="E23">
         <v>3</v>
       </c>
@@ -5439,13 +5550,13 @@
       <c r="I23" t="s">
         <v>388</v>
       </c>
-      <c r="J23" s="57"/>
+      <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="65"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="74"/>
       <c r="E24">
         <v>4</v>
       </c>
@@ -5461,13 +5572,13 @@
       <c r="I24" t="s">
         <v>389</v>
       </c>
-      <c r="J24" s="57"/>
+      <c r="J24" s="62"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="65"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="74"/>
       <c r="E25">
         <v>5</v>
       </c>
@@ -5483,19 +5594,19 @@
       <c r="I25" t="s">
         <v>413</v>
       </c>
-      <c r="J25" s="56"/>
+      <c r="J25" s="67"/>
     </row>
     <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="69" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="26">
@@ -5513,16 +5624,16 @@
       <c r="I26" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="J26" s="55" t="s">
+      <c r="J26" s="64" t="s">
         <v>392</v>
       </c>
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="66"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="25">
         <v>2</v>
       </c>
@@ -5536,20 +5647,20 @@
       <c r="I27" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="J27" s="56"/>
+      <c r="J27" s="67"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="64" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="58" t="s">
+      <c r="D28" s="65" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="26">
@@ -5567,16 +5678,16 @@
       <c r="I28" s="34" t="s">
         <v>415</v>
       </c>
-      <c r="J28" s="55" t="s">
+      <c r="J28" s="64" t="s">
         <v>392</v>
       </c>
       <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="59"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="66"/>
       <c r="E29">
         <v>2</v>
       </c>
@@ -5592,13 +5703,13 @@
       <c r="I29" t="s">
         <v>416</v>
       </c>
-      <c r="J29" s="57"/>
+      <c r="J29" s="62"/>
     </row>
     <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="59"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="66"/>
       <c r="E30">
         <v>3</v>
       </c>
@@ -5614,13 +5725,13 @@
       <c r="I30" t="s">
         <v>417</v>
       </c>
-      <c r="J30" s="57"/>
+      <c r="J30" s="62"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="60"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="25">
         <v>4</v>
       </c>
@@ -5634,20 +5745,20 @@
       <c r="I31" s="25" t="s">
         <v>418</v>
       </c>
-      <c r="J31" s="56"/>
+      <c r="J31" s="67"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="64" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="69" t="s">
         <v>219</v>
       </c>
       <c r="E32" s="26">
@@ -5665,16 +5776,16 @@
       <c r="I32" s="26" t="s">
         <v>419</v>
       </c>
-      <c r="J32" s="55" t="s">
+      <c r="J32" s="64" t="s">
         <v>399</v>
       </c>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="56"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="66"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="25">
         <v>2</v>
       </c>
@@ -5688,20 +5799,20 @@
       <c r="I33" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="J33" s="56"/>
+      <c r="J33" s="67"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="55" t="s">
+      <c r="A34" s="64" t="s">
         <v>312</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="64" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="64" t="s">
+      <c r="D34" s="69" t="s">
         <v>223</v>
       </c>
       <c r="E34" s="26">
@@ -5719,16 +5830,16 @@
       <c r="I34" s="26" t="s">
         <v>429</v>
       </c>
-      <c r="J34" s="55" t="s">
+      <c r="J34" s="64" t="s">
         <v>399</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="66"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="67"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="25">
         <v>2</v>
       </c>
@@ -5742,20 +5853,20 @@
       <c r="I35" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="J35" s="56"/>
+      <c r="J35" s="67"/>
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="64" t="s">
         <v>313</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="64" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="64" t="s">
+      <c r="D36" s="69" t="s">
         <v>226</v>
       </c>
       <c r="E36" s="26">
@@ -5773,16 +5884,16 @@
       <c r="I36" s="26" t="s">
         <v>434</v>
       </c>
-      <c r="J36" s="55" t="s">
+      <c r="J36" s="64" t="s">
         <v>399</v>
       </c>
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="66"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="25">
         <v>2</v>
       </c>
@@ -5796,7 +5907,7 @@
       <c r="I37" s="27" t="s">
         <v>420</v>
       </c>
-      <c r="J37" s="56"/>
+      <c r="J37" s="67"/>
       <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -5831,16 +5942,16 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="64" t="s">
         <v>315</v>
       </c>
-      <c r="D39" s="58" t="s">
+      <c r="D39" s="65" t="s">
         <v>316</v>
       </c>
       <c r="E39">
@@ -5858,15 +5969,15 @@
       <c r="I39" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="J39" s="55" t="s">
+      <c r="J39" s="64" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="59"/>
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="66"/>
       <c r="E40">
         <v>2</v>
       </c>
@@ -5882,13 +5993,13 @@
       <c r="I40" s="20" t="s">
         <v>441</v>
       </c>
-      <c r="J40" s="57"/>
+      <c r="J40" s="62"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="59"/>
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="66"/>
       <c r="E41">
         <v>3</v>
       </c>
@@ -5904,13 +6015,13 @@
       <c r="I41" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="J41" s="57"/>
+      <c r="J41" s="62"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="59"/>
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="66"/>
       <c r="E42">
         <v>4</v>
       </c>
@@ -5926,13 +6037,13 @@
       <c r="I42" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="J42" s="57"/>
+      <c r="J42" s="62"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="59"/>
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="66"/>
       <c r="E43">
         <v>5</v>
       </c>
@@ -5948,13 +6059,13 @@
       <c r="I43" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="J43" s="57"/>
+      <c r="J43" s="62"/>
     </row>
     <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="60"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="71"/>
       <c r="E44">
         <v>6</v>
       </c>
@@ -5967,7 +6078,7 @@
       <c r="I44" s="20" t="s">
         <v>445</v>
       </c>
-      <c r="J44" s="56"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
@@ -5995,7 +6106,7 @@
       <c r="I45" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="J45" s="55" t="s">
+      <c r="J45" s="64" t="s">
         <v>392</v>
       </c>
       <c r="K45" s="26"/>
@@ -6018,20 +6129,20 @@
       <c r="I46" s="27" t="s">
         <v>447</v>
       </c>
-      <c r="J46" s="56"/>
+      <c r="J46" s="67"/>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="D47" s="58" t="s">
+      <c r="D47" s="65" t="s">
         <v>341</v>
       </c>
       <c r="E47" s="26">
@@ -6047,16 +6158,16 @@
       <c r="I47" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="J47" s="55" t="s">
+      <c r="J47" s="64" t="s">
         <v>392</v>
       </c>
       <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="59"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="66"/>
       <c r="E48">
         <v>2</v>
       </c>
@@ -6072,13 +6183,13 @@
       <c r="I48" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="J48" s="57"/>
+      <c r="J48" s="62"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="60"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="71"/>
       <c r="E49" s="25">
         <v>3</v>
       </c>
@@ -6092,20 +6203,20 @@
       <c r="I49" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="J49" s="56"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="64" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="65" t="s">
         <v>349</v>
       </c>
       <c r="E50" s="26">
@@ -6121,16 +6232,16 @@
       <c r="I50" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="J50" s="55" t="s">
+      <c r="J50" s="64" t="s">
         <v>392</v>
       </c>
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="57"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="59"/>
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="66"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -6146,19 +6257,19 @@
       <c r="I51" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="J51" s="56"/>
+      <c r="J51" s="67"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="64" t="s">
         <v>350</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="64" t="s">
         <v>363</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="65" t="s">
         <v>351</v>
       </c>
       <c r="E52" s="26">
@@ -6176,16 +6287,16 @@
       <c r="I52" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="J52" s="55" t="s">
+      <c r="J52" s="64" t="s">
         <v>392</v>
       </c>
       <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="57"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="59"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="66"/>
       <c r="E53">
         <v>2</v>
       </c>
@@ -6201,13 +6312,13 @@
       <c r="I53" s="20" t="s">
         <v>456</v>
       </c>
-      <c r="J53" s="57"/>
+      <c r="J53" s="62"/>
     </row>
     <row r="54" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="57"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="59"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="66"/>
       <c r="E54">
         <v>3</v>
       </c>
@@ -6223,14 +6334,13 @@
       <c r="I54" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="J54" s="57"/>
-      <c r="K54" s="77"/>
+      <c r="J54" s="62"/>
     </row>
     <row r="55" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="56"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="60"/>
+      <c r="A55" s="67"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="71"/>
       <c r="E55" s="25">
         <v>4</v>
       </c>
@@ -6244,20 +6354,20 @@
       <c r="I55" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="J55" s="56"/>
+      <c r="J55" s="67"/>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="55" t="s">
+      <c r="A56" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="64" t="s">
         <v>94</v>
       </c>
       <c r="C56" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="65" t="s">
         <v>366</v>
       </c>
       <c r="E56">
@@ -6275,15 +6385,15 @@
       <c r="I56" s="20" t="s">
         <v>459</v>
       </c>
-      <c r="J56" s="55" t="s">
+      <c r="J56" s="64" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="56"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="62"/>
-      <c r="D57" s="60"/>
+      <c r="A57" s="67"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="25">
         <v>2</v>
       </c>
@@ -6297,20 +6407,20 @@
       <c r="I57" s="27" t="s">
         <v>460</v>
       </c>
-      <c r="J57" s="56"/>
+      <c r="J57" s="67"/>
       <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="64" t="s">
         <v>94</v>
       </c>
       <c r="C58" s="61" t="s">
         <v>372</v>
       </c>
-      <c r="D58" s="58" t="s">
+      <c r="D58" s="65" t="s">
         <v>373</v>
       </c>
       <c r="E58">
@@ -6328,15 +6438,15 @@
       <c r="I58" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="J58" s="55" t="s">
+      <c r="J58" s="64" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="60"/>
+      <c r="A59" s="67"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="68"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="25">
         <v>2</v>
       </c>
@@ -6350,11 +6460,11 @@
       <c r="I59" s="27" t="s">
         <v>462</v>
       </c>
-      <c r="J59" s="56"/>
+      <c r="J59" s="67"/>
       <c r="K59" s="25"/>
     </row>
     <row r="60" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="82" t="s">
+      <c r="A60" s="61" t="s">
         <v>539</v>
       </c>
       <c r="B60" s="61" t="s">
@@ -6384,15 +6494,15 @@
       <c r="J60" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="K60" s="83" t="s">
+      <c r="K60" s="57" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="81"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="36">
         <v>2</v>
       </c>
@@ -6408,11 +6518,11 @@
       <c r="I61" s="36" t="s">
         <v>543</v>
       </c>
-      <c r="J61" s="63"/>
-      <c r="K61" s="84"/>
+      <c r="J61" s="56"/>
+      <c r="K61" s="58"/>
     </row>
     <row r="62" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="80" t="s">
+      <c r="A62" s="36" t="s">
         <v>540</v>
       </c>
       <c r="B62" s="36" t="s">
@@ -6550,7 +6660,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="80" t="s">
+      <c r="A67" s="36" t="s">
         <v>567</v>
       </c>
       <c r="B67" s="36" t="s">
@@ -6610,7 +6720,7 @@
       <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A69" s="80" t="s">
+      <c r="A69" s="36" t="s">
         <v>576</v>
       </c>
       <c r="B69" s="36" t="s">
@@ -6666,7 +6776,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A71" s="80" t="s">
+      <c r="A71" s="36" t="s">
         <v>587</v>
       </c>
       <c r="B71" s="36" t="s">
@@ -6770,7 +6880,7 @@
       </c>
     </row>
     <row r="75" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="80" t="s">
+      <c r="A75" s="36" t="s">
         <v>599</v>
       </c>
       <c r="B75" s="36" t="s">
@@ -6843,49 +6953,49 @@
       <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="63" t="s">
+      <c r="A78" s="56" t="s">
         <v>608</v>
       </c>
-      <c r="B78" s="63" t="s">
+      <c r="B78" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="85" t="s">
+      <c r="C78" s="59" t="s">
         <v>607</v>
       </c>
-      <c r="D78" s="63" t="s">
+      <c r="D78" s="56" t="s">
         <v>609</v>
       </c>
-      <c r="E78" s="85" t="s">
+      <c r="E78" s="59" t="s">
         <v>610</v>
       </c>
-      <c r="F78" s="63" t="s">
+      <c r="F78" s="56" t="s">
         <v>611</v>
       </c>
-      <c r="G78" s="86" t="s">
+      <c r="G78" s="60" t="s">
         <v>614</v>
       </c>
-      <c r="H78" s="63" t="s">
+      <c r="H78" s="56" t="s">
         <v>612</v>
       </c>
-      <c r="I78" s="63" t="s">
+      <c r="I78" s="56" t="s">
         <v>613</v>
       </c>
-      <c r="J78" s="85" t="s">
+      <c r="J78" s="59" t="s">
         <v>392</v>
       </c>
       <c r="K78" s="36"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="63"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="63"/>
-      <c r="G79" s="86"/>
-      <c r="H79" s="63"/>
-      <c r="I79" s="63"/>
-      <c r="J79" s="85"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="59"/>
+      <c r="F79" s="56"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="56"/>
+      <c r="J79" s="59"/>
       <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -6901,13 +7011,13 @@
       <c r="J80" s="36"/>
     </row>
     <row r="82" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="57" t="s">
+      <c r="B82" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="63" t="s">
+      <c r="C82" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="D82" s="63" t="s">
+      <c r="D82" s="56" t="s">
         <v>475</v>
       </c>
       <c r="E82">
@@ -6918,9 +7028,9 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B83" s="57"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="57"/>
+      <c r="B83" s="62"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="62"/>
       <c r="E83">
         <v>2</v>
       </c>
@@ -6936,14 +7046,14 @@
       <c r="I83" s="20" t="s">
         <v>473</v>
       </c>
-      <c r="J83" s="78" t="s">
+      <c r="J83" s="54" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="57"/>
-      <c r="C84" s="63"/>
-      <c r="D84" s="57"/>
+      <c r="B84" s="62"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="62"/>
       <c r="E84">
         <v>3</v>
       </c>
@@ -6958,13 +7068,13 @@
       </c>
     </row>
     <row r="85" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B85" s="57" t="s">
+      <c r="B85" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="C85" s="63" t="s">
+      <c r="C85" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="D85" s="63" t="s">
+      <c r="D85" s="56" t="s">
         <v>476</v>
       </c>
       <c r="E85">
@@ -6982,14 +7092,14 @@
       <c r="I85" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="J85" s="79" t="s">
+      <c r="J85" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B86" s="57"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
       <c r="E86">
         <v>2</v>
       </c>
@@ -7002,16 +7112,16 @@
       <c r="I86" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="J86" s="79"/>
+      <c r="J86" s="63"/>
     </row>
     <row r="87" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="57" t="s">
+      <c r="B87" s="62" t="s">
         <v>264</v>
       </c>
-      <c r="C87" s="63" t="s">
+      <c r="C87" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="D87" s="63" t="s">
+      <c r="D87" s="56" t="s">
         <v>484</v>
       </c>
       <c r="E87">
@@ -7029,14 +7139,14 @@
       <c r="I87" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="J87" s="79" t="s">
+      <c r="J87" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B88" s="57"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="63"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="56"/>
+      <c r="D88" s="56"/>
       <c r="E88">
         <v>2</v>
       </c>
@@ -7049,16 +7159,16 @@
       <c r="I88" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="J88" s="79"/>
+      <c r="J88" s="63"/>
     </row>
     <row r="89" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="57" t="s">
+      <c r="B89" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="C89" s="63" t="s">
+      <c r="C89" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="D89" s="63" t="s">
+      <c r="D89" s="56" t="s">
         <v>491</v>
       </c>
       <c r="E89">
@@ -7067,14 +7177,14 @@
       <c r="F89" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="J89" s="79" t="s">
+      <c r="J89" s="63" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="57"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="56"/>
+      <c r="D90" s="56"/>
       <c r="E90">
         <v>2</v>
       </c>
@@ -7090,16 +7200,16 @@
       <c r="I90" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="J90" s="79"/>
+      <c r="J90" s="63"/>
     </row>
     <row r="91" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="57" t="s">
+      <c r="B91" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="D91" s="63" t="s">
+      <c r="D91" s="56" t="s">
         <v>514</v>
       </c>
       <c r="E91">
@@ -7114,14 +7224,14 @@
       <c r="I91" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="J91" s="79" t="s">
+      <c r="J91" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B92" s="57"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="56"/>
+      <c r="D92" s="56"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -7134,16 +7244,16 @@
       <c r="I92" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="J92" s="79"/>
+      <c r="J92" s="63"/>
     </row>
     <row r="93" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="57" t="s">
+      <c r="B93" s="62" t="s">
         <v>267</v>
       </c>
-      <c r="C93" s="63" t="s">
+      <c r="C93" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="D93" s="57" t="s">
+      <c r="D93" s="62" t="s">
         <v>501</v>
       </c>
       <c r="E93">
@@ -7158,26 +7268,26 @@
       <c r="H93" t="s">
         <v>506</v>
       </c>
-      <c r="J93" s="79" t="s">
+      <c r="J93" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="57"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="57"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="56"/>
+      <c r="D94" s="62"/>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="J94" s="79"/>
+      <c r="J94" s="63"/>
     </row>
     <row r="95" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B95" s="57"/>
-      <c r="C95" s="63"/>
-      <c r="D95" s="57"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="56"/>
+      <c r="D95" s="62"/>
       <c r="E95">
         <v>3</v>
       </c>
@@ -7190,16 +7300,16 @@
       <c r="I95" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="J95" s="79"/>
+      <c r="J95" s="63"/>
     </row>
     <row r="96" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="57" t="s">
+      <c r="B96" s="62" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="63" t="s">
+      <c r="C96" s="56" t="s">
         <v>466</v>
       </c>
-      <c r="D96" s="57" t="s">
+      <c r="D96" s="62" t="s">
         <v>508</v>
       </c>
       <c r="E96">
@@ -7211,14 +7321,14 @@
       <c r="G96" t="s">
         <v>505</v>
       </c>
-      <c r="J96" s="79" t="s">
+      <c r="J96" s="63" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B97" s="57"/>
-      <c r="C97" s="63"/>
-      <c r="D97" s="57"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="56"/>
+      <c r="D97" s="62"/>
       <c r="E97">
         <v>2</v>
       </c>
@@ -7231,16 +7341,16 @@
       <c r="I97" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="J97" s="79"/>
+      <c r="J97" s="63"/>
     </row>
     <row r="98" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="62" t="s">
         <v>530</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C98" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="D98" s="57" t="s">
+      <c r="D98" s="62" t="s">
         <v>517</v>
       </c>
       <c r="E98">
@@ -7249,14 +7359,14 @@
       <c r="F98" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="J98" s="79" t="s">
+      <c r="J98" s="63" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="57"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="57"/>
+      <c r="B99" s="62"/>
+      <c r="C99" s="56"/>
+      <c r="D99" s="62"/>
       <c r="E99">
         <v>2</v>
       </c>
@@ -7272,12 +7382,12 @@
       <c r="I99" t="s">
         <v>526</v>
       </c>
-      <c r="J99" s="79"/>
+      <c r="J99" s="63"/>
     </row>
     <row r="100" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B100" s="57"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="57"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="56"/>
+      <c r="D100" s="62"/>
       <c r="E100">
         <v>3</v>
       </c>
@@ -7293,10 +7403,126 @@
       <c r="I100" s="20" t="s">
         <v>529</v>
       </c>
-      <c r="J100" s="79"/>
+      <c r="J100" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="J96:J97"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="F78:F79"/>
@@ -7313,122 +7539,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="J60:J61"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J55"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -7443,15 +7553,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB982B-902A-43BA-8648-421444C00694}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.453125" customWidth="1"/>
     <col min="4" max="4" width="39.7265625" customWidth="1"/>
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -7619,6 +7729,75 @@
         <v>408</v>
       </c>
     </row>
+    <row r="7" spans="1:9" s="83" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="83" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>617</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>619</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>616</v>
+      </c>
+      <c r="F7" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="H7" s="83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="83" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="83" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" t="s">
+        <v>624</v>
+      </c>
+      <c r="C8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>622</v>
+      </c>
+      <c r="E8" t="s">
+        <v>621</v>
+      </c>
+      <c r="F8" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>407</v>
+      </c>
+      <c r="H8" s="83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B9" s="36"/>
+      <c r="D9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B10" s="36"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B13" s="36"/>
+    </row>
     <row r="20" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>519</v>
@@ -7666,8 +7845,10 @@
     <hyperlink ref="G4" r:id="rId3" xr:uid="{67278530-50F1-4B8B-B7BB-1399F7DAC2D6}"/>
     <hyperlink ref="G5" r:id="rId4" xr:uid="{DE8244D2-C16A-4883-9565-914203D06A68}"/>
     <hyperlink ref="G6" r:id="rId5" xr:uid="{6AE1C0A3-95AF-4573-903E-297F5A2C6B2B}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{DF0209A5-FA59-4B98-8F26-F8AEBFB99380}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{2892D10C-EBBE-40E6-A581-F03BF49B9160}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/Orange.xlsx
+++ b/Orange.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302880\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302809\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DF4F4C-62D0-4B61-A127-514C327C3E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98E3BD6-6A97-46A0-B641-AF4F088DD3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{2E6A2184-8419-4B30-A13E-A1B5190D2FD7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="640">
   <si>
     <t>Issue Type</t>
   </si>
@@ -694,175 +694,19 @@
     <t>To verify that the user can apply leave from the Leave module</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify user navigates to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apply Leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> page, selects leave type, enters valid date range, adds comments, and submits successfully.</t>
-    </r>
-  </si>
-  <si>
     <t>To verify that the user can view all leave details</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Validate user can access the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>My Leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tab and view the list of all applied leaves with correct status (Approved/Pending/Rejected).</t>
-    </r>
-  </si>
-  <si>
     <t>To verify that the user can generate leave reports from the application</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify navigation to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leave Reports</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, selection of report type (e.g., Employee or Leave Type), and generation of report displaying correct data.</t>
-    </r>
-  </si>
-  <si>
     <t>To verify that the user is able to assign leave to other employees</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Validate admin or manager can navigate to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Assign Leave</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, select an employee, enter leave details, and successfully assign leave.</t>
-    </r>
-  </si>
-  <si>
     <t>To verify that the user is able to view the leave list of employees</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Verify </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Leave List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> displays leave details of employees based on selected filters (e.g., date range, leave type, or status).</t>
-    </r>
-  </si>
-  <si>
     <t>To verify that the admin can configure workdays, holidays, leave types, and leave periods</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Validate that admin can navigate to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Configure</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> section, update workdays, add holidays, create leave types, and define leave periods successfully.</t>
-    </r>
   </si>
   <si>
     <t>To verify if the system shows error on updating with 
@@ -1069,9 +913,6 @@
   </si>
   <si>
     <t>TS_45</t>
-  </si>
-  <si>
-    <t>TS_49</t>
   </si>
   <si>
     <t>REQ_07</t>
@@ -2186,12 +2027,112 @@
   <si>
     <t>Leave Configuration</t>
   </si>
+  <si>
+    <t>DF_08</t>
+  </si>
+  <si>
+    <t>TimeSheet</t>
+  </si>
+  <si>
+    <t>DF_09</t>
+  </si>
+  <si>
+    <t>DF_10</t>
+  </si>
+  <si>
+    <t>Steps : 
+1. Navigate to My timesheet
+page
+2. Enter the project name
+3. Select the activity.
+4. Enter the hours for the
+day more than 12.
+5. Click on save.</t>
+  </si>
+  <si>
+    <t>System accepts the working hours
+ more than 12 without any warning.</t>
+  </si>
+  <si>
+    <t>System submits timesheet</t>
+  </si>
+  <si>
+    <t>System accepting work hours
+ more than 40 hours for a week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps : 
+1. Navigate to My timesheet
+page.
+2. Enter the project name.
+3. Select the activity.
+4. Enter the hours for the
+day Monday.
+5. Enter the hours for the
+day Tuesday.
+6. Enter the hours for the
+day Wednesday.
+7. Enter the hours for the
+day Thursday.
+8. Enter the hours for the
+day Friday.
+9. Enter the hours for the
+day Saturday.
+10. Enter the hours for the
+day Sunday.
+11. Click on save.
+</t>
+  </si>
+  <si>
+    <t>TS_44</t>
+  </si>
+  <si>
+    <t>TS_46</t>
+  </si>
+  <si>
+    <t>Verify user navigates to Apply Leave page, selects leave type, enters valid date range, adds comments, and submits successfully.</t>
+  </si>
+  <si>
+    <t>To verify that the user can add leave entitlement for single and multiple employees</t>
+  </si>
+  <si>
+    <t>Validate adding entitlement for a single employee, adding bulk entitlements using criteria (Location/Job Title/Submit), verifying entitlement list, and editing entitlements.</t>
+  </si>
+  <si>
+    <t>Validate user can access the My Leave tab and view the list of all applied leaves with correct status (Approved/Pending/Rejected).</t>
+  </si>
+  <si>
+    <t>Verify navigation to Leave Reports, selection of report type (e.g., Employee or Leave Type), and generation of report displaying correct data.</t>
+  </si>
+  <si>
+    <t>Validate admin or manager can navigate to Assign Leave, select an employee, enter leave details, and successfully assign leave.</t>
+  </si>
+  <si>
+    <t>Verify Leave List displays leave details of employees based on selected filters (e.g., date range, leave type, or status).</t>
+  </si>
+  <si>
+    <t>Validate that admin can navigate to Configure section, update workdays, add holidays, create leave types, and define leave periods successfully.</t>
+  </si>
+  <si>
+    <t>System doesn't allow the user to view the attendance record for the future date</t>
+  </si>
+  <si>
+    <t>Steps : 
+1. Navigate to My Punch In/Out
+page
+2. Enter the Employee
+name.
+3. Select the date</t>
+  </si>
+  <si>
+    <t>Date appeared</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2239,14 +2180,6 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2592,9 +2525,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,41 +2648,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2759,27 +2678,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2801,13 +2717,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3227,8 +3165,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3746500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>698500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3261,12 +3199,144 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3501305</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1263021</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{468FB5F3-3A76-FA53-7A04-AE4D14D74E3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12280900" y="7734300"/>
+          <a:ext cx="3139355" cy="1142371"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1779</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1282699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>2895600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{746143B8-0D4C-F6BF-166E-D72305A55615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11920729" y="10369549"/>
+          <a:ext cx="4855971" cy="1612901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>48638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2832100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14CF87C0-B0BE-00E5-518E-C5E4CDCC62D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12496800" y="13231238"/>
+          <a:ext cx="2254250" cy="1164212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}" name="Table4" displayName="Table4" ref="A1:F46" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:F46" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}" name="Table4" displayName="Table4" ref="A1:F47" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:F47" xr:uid="{43725DD8-8DEE-4E5D-8961-5EA54C649321}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{670619DA-4F99-4676-8249-8B608F177BF5}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{237F6E1C-CD58-426D-B013-FA9D6498B25D}" name="Requirement ID"/>
@@ -3598,8 +3668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23E4D41-95FE-4CA4-9315-15C62742C9E7}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3609,11 +3679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3681,11 +3751,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
@@ -3708,7 +3778,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -3752,11 +3822,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
@@ -3831,11 +3901,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3895,11 +3965,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="55" t="s">
+      <c r="A45" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
@@ -3980,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B89BEC-B47F-4DF1-B3F8-9E58E30A2F6D}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4222,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G11" s="45"/>
       <c r="H11"/>
@@ -4233,7 +4303,7 @@
         <v>182</v>
       </c>
       <c r="B12" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>207</v>
@@ -4245,28 +4315,28 @@
         <v>5</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>208</v>
+        <v>629</v>
       </c>
       <c r="G12" s="45"/>
     </row>
-    <row r="13" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>209</v>
+        <v>630</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>210</v>
+        <v>631</v>
       </c>
       <c r="G13" s="45"/>
     </row>
@@ -4275,19 +4345,19 @@
         <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C14" s="36" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D14" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>212</v>
+        <v>632</v>
       </c>
       <c r="G14" s="45"/>
     </row>
@@ -4296,105 +4366,105 @@
         <v>185</v>
       </c>
       <c r="B15" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D15" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>214</v>
+        <v>633</v>
       </c>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>186</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>63</v>
       </c>
       <c r="E16" s="36">
+        <v>3</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>281</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="36">
         <v>2</v>
       </c>
-      <c r="F16" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" spans="1:9" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="38">
-        <v>6</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>218</v>
+      <c r="F17" s="36" t="s">
+        <v>635</v>
       </c>
       <c r="G17" s="45"/>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>188</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="E18" s="36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>192</v>
+        <v>636</v>
       </c>
       <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E19" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G19" s="45"/>
     </row>
@@ -4403,31 +4473,31 @@
         <v>190</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C20" s="36" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E20" s="36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G20" s="45"/>
     </row>
-    <row r="21" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>166</v>
@@ -4436,19 +4506,19 @@
         <v>3</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G21" s="45"/>
     </row>
-    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>166</v>
@@ -4457,105 +4527,105 @@
         <v>3</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G22" s="45"/>
     </row>
-    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D23" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E23" s="36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G23" s="45"/>
     </row>
     <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C24" s="36" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D24" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E24" s="36">
+        <v>2</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B25" t="s">
+        <v>288</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" s="36">
         <v>3</v>
       </c>
-      <c r="F24" s="36" t="s">
+      <c r="F25" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="G24" s="45"/>
-    </row>
-    <row r="25" spans="1:9" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="C25" s="38" t="s">
+      <c r="G25" s="45"/>
+    </row>
+    <row r="26" spans="1:9" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D26" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E26" s="38">
         <v>2</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F26" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>262</v>
-      </c>
-      <c r="B26" t="s">
-        <v>297</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="G26" s="45"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>163</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="36">
-        <v>1</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="45"/>
-    </row>
-    <row r="27" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>263</v>
-      </c>
-      <c r="B27" t="s">
-        <v>297</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="D27" s="36" t="s">
         <v>166</v>
@@ -4563,20 +4633,20 @@
       <c r="E27" s="36">
         <v>1</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>167</v>
+      <c r="F27" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>166</v>
@@ -4585,19 +4655,19 @@
         <v>1</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G28" s="45"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D29" s="36" t="s">
         <v>166</v>
@@ -4606,19 +4676,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G29" s="45"/>
     </row>
-    <row r="30" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" s="36" t="s">
         <v>166</v>
@@ -4627,19 +4697,19 @@
         <v>1</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B31" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" s="36" t="s">
         <v>166</v>
@@ -4648,126 +4718,126 @@
         <v>1</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G31" s="45"/>
     </row>
     <row r="32" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E32" s="36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G32" s="45"/>
     </row>
     <row r="33" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E33" s="36">
+        <v>4</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G33" s="45"/>
+    </row>
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E34" s="36">
         <v>1</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F34" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="G33" s="45"/>
-    </row>
-    <row r="34" spans="1:9" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>303</v>
-      </c>
-      <c r="C34" s="27" t="s">
+      <c r="G34" s="45"/>
+    </row>
+    <row r="35" spans="1:9" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="C35" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D35" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F35" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="45"/>
-      <c r="H34"/>
-      <c r="I34"/>
-    </row>
-    <row r="35" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>271</v>
-      </c>
-      <c r="B35" t="s">
-        <v>304</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="36">
-        <v>1</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>238</v>
-      </c>
       <c r="G35" s="45"/>
-    </row>
-    <row r="36" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B36" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E36" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G36" s="45"/>
     </row>
     <row r="37" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B37" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>166</v>
@@ -4776,19 +4846,19 @@
         <v>2</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="G37" s="45"/>
     </row>
     <row r="38" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D38" s="36" t="s">
         <v>166</v>
@@ -4797,40 +4867,40 @@
         <v>2</v>
       </c>
       <c r="F38" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G38" s="45"/>
     </row>
     <row r="39" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E39" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G39" s="45"/>
     </row>
     <row r="40" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>166</v>
@@ -4839,19 +4909,19 @@
         <v>1</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="G40" s="45"/>
     </row>
     <row r="41" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B41" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>166</v>
@@ -4860,40 +4930,40 @@
         <v>1</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B42" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E42" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="G42" s="45"/>
     </row>
     <row r="43" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>166</v>
@@ -4902,61 +4972,61 @@
         <v>2</v>
       </c>
       <c r="F43" s="20" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B44" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="36">
         <v>2</v>
       </c>
       <c r="F44" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G44" s="45"/>
     </row>
     <row r="45" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>627</v>
       </c>
       <c r="B45" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45">
         <v>2</v>
       </c>
       <c r="F45" s="20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G45" s="45"/>
     </row>
     <row r="46" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B46" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>166</v>
@@ -4965,9 +5035,30 @@
         <v>2</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G46" s="45"/>
+    </row>
+    <row r="47" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>628</v>
+      </c>
+      <c r="B47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="36">
+        <v>2</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="G47" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4982,7 +5073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A9CE4C-2A62-44A6-B5F2-44C102142D8D}">
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I78" sqref="I78:I79"/>
     </sheetView>
   </sheetViews>
@@ -5002,31 +5093,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="78" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="72" t="s">
+      <c r="G1" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="76" t="s">
         <v>103</v>
       </c>
       <c r="J1" s="47" t="s">
@@ -5037,15 +5128,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="76"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
+      <c r="A2" s="71"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
       <c r="J2" s="48" t="s">
         <v>105</v>
       </c>
@@ -5054,17 +5145,17 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="69" t="s">
-        <v>463</v>
+      <c r="D3" s="67" t="s">
+        <v>456</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -5079,17 +5170,17 @@
         <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>386</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>392</v>
+        <v>379</v>
+      </c>
+      <c r="J3" s="58" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="62"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="66"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="62"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -5103,15 +5194,15 @@
         <v>135</v>
       </c>
       <c r="I4" t="s">
-        <v>387</v>
-      </c>
-      <c r="J4" s="62"/>
+        <v>380</v>
+      </c>
+      <c r="J4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="62"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="66"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="62"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -5125,15 +5216,15 @@
         <v>136</v>
       </c>
       <c r="I5" t="s">
-        <v>388</v>
-      </c>
-      <c r="J5" s="62"/>
+        <v>381</v>
+      </c>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="66"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="62"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -5147,15 +5238,15 @@
         <v>137</v>
       </c>
       <c r="I6" t="s">
-        <v>389</v>
-      </c>
-      <c r="J6" s="62"/>
+        <v>382</v>
+      </c>
+      <c r="J6" s="59"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="66"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="62"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -5169,15 +5260,15 @@
         <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>390</v>
-      </c>
-      <c r="J7" s="62"/>
+        <v>383</v>
+      </c>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="71"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="25">
         <v>6</v>
       </c>
@@ -5189,23 +5280,23 @@
         <v>140</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="J8" s="67"/>
+        <v>384</v>
+      </c>
+      <c r="J8" s="60"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="69" t="s">
-        <v>464</v>
+      <c r="D9" s="67" t="s">
+        <v>457</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -5217,20 +5308,20 @@
         <v>1234</v>
       </c>
       <c r="H9" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="I9" t="s">
-        <v>397</v>
-      </c>
-      <c r="J9" s="64" t="s">
-        <v>399</v>
+        <v>390</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="74"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="68"/>
       <c r="E10">
         <v>2</v>
       </c>
@@ -5244,15 +5335,15 @@
         <v>135</v>
       </c>
       <c r="I10" t="s">
-        <v>387</v>
-      </c>
-      <c r="J10" s="62"/>
+        <v>380</v>
+      </c>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="74"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="68"/>
       <c r="E11">
         <v>3</v>
       </c>
@@ -5263,18 +5354,18 @@
         <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I11" t="s">
-        <v>398</v>
-      </c>
-      <c r="J11" s="62"/>
+        <v>391</v>
+      </c>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="62"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="68"/>
       <c r="E12">
         <v>4</v>
       </c>
@@ -5285,18 +5376,18 @@
         <v>30201</v>
       </c>
       <c r="H12" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="I12" t="s">
-        <v>396</v>
-      </c>
-      <c r="J12" s="62"/>
+        <v>389</v>
+      </c>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="62"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="74"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="68"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -5310,15 +5401,15 @@
         <v>138</v>
       </c>
       <c r="I13" t="s">
-        <v>390</v>
-      </c>
-      <c r="J13" s="62"/>
+        <v>383</v>
+      </c>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="67"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="70"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="25">
         <v>6</v>
       </c>
@@ -5330,23 +5421,23 @@
         <v>141</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="J14" s="67"/>
+        <v>384</v>
+      </c>
+      <c r="J14" s="60"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="69" t="s">
-        <v>465</v>
+      <c r="D15" s="67" t="s">
+        <v>458</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5361,17 +5452,17 @@
         <v>134</v>
       </c>
       <c r="I15" t="s">
-        <v>386</v>
-      </c>
-      <c r="J15" s="64" t="s">
-        <v>399</v>
+        <v>379</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="74"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="68"/>
       <c r="E16">
         <v>2</v>
       </c>
@@ -5385,15 +5476,15 @@
         <v>135</v>
       </c>
       <c r="I16" t="s">
-        <v>387</v>
-      </c>
-      <c r="J16" s="62"/>
+        <v>380</v>
+      </c>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="74"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="68"/>
       <c r="E17">
         <v>3</v>
       </c>
@@ -5407,15 +5498,15 @@
         <v>136</v>
       </c>
       <c r="I17" t="s">
-        <v>388</v>
-      </c>
-      <c r="J17" s="62"/>
+        <v>381</v>
+      </c>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="74"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="68"/>
       <c r="E18">
         <v>4</v>
       </c>
@@ -5429,15 +5520,15 @@
         <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>400</v>
-      </c>
-      <c r="J18" s="62"/>
+        <v>393</v>
+      </c>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="74"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="68"/>
       <c r="E19">
         <v>5</v>
       </c>
@@ -5451,15 +5542,15 @@
         <v>138</v>
       </c>
       <c r="I19" t="s">
-        <v>390</v>
-      </c>
-      <c r="J19" s="62"/>
+        <v>383</v>
+      </c>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="67"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="70"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="25">
         <v>6</v>
       </c>
@@ -5471,22 +5562,22 @@
         <v>141</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="J20" s="67"/>
+        <v>384</v>
+      </c>
+      <c r="J20" s="60"/>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="64" t="s">
+      <c r="C21" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="67" t="s">
         <v>128</v>
       </c>
       <c r="E21">
@@ -5502,17 +5593,17 @@
         <v>134</v>
       </c>
       <c r="I21" t="s">
-        <v>386</v>
-      </c>
-      <c r="J21" s="64" t="s">
-        <v>392</v>
+        <v>379</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="74"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="68"/>
       <c r="E22">
         <v>2</v>
       </c>
@@ -5526,15 +5617,15 @@
         <v>135</v>
       </c>
       <c r="I22" t="s">
-        <v>387</v>
-      </c>
-      <c r="J22" s="62"/>
+        <v>380</v>
+      </c>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="74"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="68"/>
       <c r="E23">
         <v>3</v>
       </c>
@@ -5548,15 +5639,15 @@
         <v>136</v>
       </c>
       <c r="I23" t="s">
-        <v>388</v>
-      </c>
-      <c r="J23" s="62"/>
+        <v>381</v>
+      </c>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="74"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="68"/>
       <c r="E24">
         <v>4</v>
       </c>
@@ -5570,15 +5661,15 @@
         <v>137</v>
       </c>
       <c r="I24" t="s">
-        <v>389</v>
-      </c>
-      <c r="J24" s="62"/>
+        <v>382</v>
+      </c>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="74"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="68"/>
       <c r="E25">
         <v>5</v>
       </c>
@@ -5589,24 +5680,24 @@
         <v>129</v>
       </c>
       <c r="H25" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="I25" t="s">
-        <v>413</v>
-      </c>
-      <c r="J25" s="67"/>
+        <v>406</v>
+      </c>
+      <c r="J25" s="60"/>
     </row>
     <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="67" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="26">
@@ -5622,18 +5713,18 @@
         <v>134</v>
       </c>
       <c r="I26" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="J26" s="64" t="s">
-        <v>392</v>
+        <v>379</v>
+      </c>
+      <c r="J26" s="58" t="s">
+        <v>385</v>
       </c>
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="67"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="70"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="25">
         <v>2</v>
       </c>
@@ -5645,22 +5736,22 @@
         <v>144</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="J27" s="67"/>
+        <v>407</v>
+      </c>
+      <c r="J27" s="60"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="64" t="s">
+      <c r="A28" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="61" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="26">
@@ -5676,18 +5767,18 @@
         <v>150</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="J28" s="64" t="s">
-        <v>392</v>
+        <v>408</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>385</v>
       </c>
       <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="66"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="62"/>
       <c r="E29">
         <v>2</v>
       </c>
@@ -5701,15 +5792,15 @@
         <v>153</v>
       </c>
       <c r="I29" t="s">
-        <v>416</v>
-      </c>
-      <c r="J29" s="62"/>
+        <v>409</v>
+      </c>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="66"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="62"/>
       <c r="E30">
         <v>3</v>
       </c>
@@ -5723,15 +5814,15 @@
         <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>417</v>
-      </c>
-      <c r="J30" s="62"/>
+        <v>410</v>
+      </c>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="67"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="71"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="25">
         <v>4</v>
       </c>
@@ -5743,49 +5834,49 @@
         <v>158</v>
       </c>
       <c r="I31" s="25" t="s">
-        <v>418</v>
-      </c>
-      <c r="J31" s="67"/>
+        <v>411</v>
+      </c>
+      <c r="J31" s="60"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="64" t="s">
-        <v>311</v>
-      </c>
-      <c r="B32" s="64" t="s">
+      <c r="A32" s="58" t="s">
+        <v>304</v>
+      </c>
+      <c r="B32" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="61" t="s">
+      <c r="C32" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="69" t="s">
-        <v>219</v>
+      <c r="D32" s="67" t="s">
+        <v>213</v>
       </c>
       <c r="E32" s="26">
         <v>1</v>
       </c>
       <c r="F32" s="33" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G32" s="37">
         <v>45980</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>419</v>
-      </c>
-      <c r="J32" s="64" t="s">
-        <v>399</v>
+        <v>412</v>
+      </c>
+      <c r="J32" s="58" t="s">
+        <v>392</v>
       </c>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="70"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="25">
         <v>2</v>
       </c>
@@ -5794,52 +5885,52 @@
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="J33" s="67"/>
+        <v>413</v>
+      </c>
+      <c r="J33" s="60"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="64" t="s">
-        <v>312</v>
-      </c>
-      <c r="B34" s="64" t="s">
+      <c r="A34" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="B34" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="69" t="s">
-        <v>223</v>
+      <c r="D34" s="67" t="s">
+        <v>217</v>
       </c>
       <c r="E34" s="26">
         <v>1</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G34" s="37" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>429</v>
-      </c>
-      <c r="J34" s="64" t="s">
-        <v>399</v>
+        <v>422</v>
+      </c>
+      <c r="J34" s="58" t="s">
+        <v>392</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="70"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="69"/>
       <c r="E35" s="25">
         <v>2</v>
       </c>
@@ -5848,52 +5939,52 @@
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="J35" s="67"/>
+        <v>413</v>
+      </c>
+      <c r="J35" s="60"/>
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="64" t="s">
-        <v>313</v>
-      </c>
-      <c r="B36" s="64" t="s">
+      <c r="A36" s="58" t="s">
+        <v>306</v>
+      </c>
+      <c r="B36" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="61" t="s">
+      <c r="C36" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="69" t="s">
-        <v>226</v>
+      <c r="D36" s="67" t="s">
+        <v>220</v>
       </c>
       <c r="E36" s="26">
         <v>1</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="G36" s="37" t="s">
         <v>124</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="I36" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="J36" s="64" t="s">
-        <v>399</v>
+        <v>427</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>392</v>
       </c>
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="67"/>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="70"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="69"/>
       <c r="E37" s="25">
         <v>2</v>
       </c>
@@ -5902,170 +5993,170 @@
       </c>
       <c r="G37" s="25"/>
       <c r="H37" s="27" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="J37" s="67"/>
+        <v>413</v>
+      </c>
+      <c r="J37" s="60"/>
       <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="39" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E38" s="40">
         <v>1</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="G38" s="40"/>
       <c r="H38" s="42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I38" s="40" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="J38" s="39" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="64" t="s">
-        <v>332</v>
-      </c>
-      <c r="B39" s="64" t="s">
+      <c r="A39" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="D39" s="65" t="s">
-        <v>316</v>
+      <c r="C39" s="58" t="s">
+        <v>308</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>309</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" s="31" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I39" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="J39" s="64" t="s">
-        <v>392</v>
+        <v>433</v>
+      </c>
+      <c r="J39" s="58" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="66"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="59"/>
+      <c r="D40" s="62"/>
       <c r="E40">
         <v>2</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G40" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="I40" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="J40" s="62"/>
+        <v>434</v>
+      </c>
+      <c r="J40" s="59"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="66"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="59"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="62"/>
       <c r="E41">
         <v>3</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I41" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="J41" s="62"/>
+        <v>435</v>
+      </c>
+      <c r="J41" s="59"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
-      <c r="D42" s="66"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="62"/>
       <c r="E42">
         <v>4</v>
       </c>
       <c r="F42" s="31" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="G42" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="I42" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="J42" s="62"/>
+        <v>436</v>
+      </c>
+      <c r="J42" s="59"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="66"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="62"/>
       <c r="E43">
         <v>5</v>
       </c>
       <c r="F43" s="31" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="I43" s="20" t="s">
-        <v>444</v>
-      </c>
-      <c r="J43" s="62"/>
+        <v>437</v>
+      </c>
+      <c r="J43" s="59"/>
     </row>
     <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="67"/>
-      <c r="B44" s="67"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="71"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="63"/>
       <c r="E44">
         <v>6</v>
       </c>
@@ -6073,41 +6164,41 @@
         <v>157</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="J44" s="67"/>
+        <v>438</v>
+      </c>
+      <c r="J44" s="60"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B45" s="28" t="s">
         <v>92</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D45" s="34" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E45" s="26">
         <v>1</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G45" s="26"/>
       <c r="H45" s="46" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>446</v>
-      </c>
-      <c r="J45" s="64" t="s">
-        <v>392</v>
+        <v>439</v>
+      </c>
+      <c r="J45" s="58" t="s">
+        <v>385</v>
       </c>
       <c r="K45" s="26"/>
     </row>
@@ -6120,227 +6211,227 @@
         <v>2</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="27" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="J46" s="67"/>
+        <v>440</v>
+      </c>
+      <c r="J46" s="60"/>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="64" t="s">
-        <v>339</v>
-      </c>
-      <c r="B47" s="64" t="s">
+      <c r="A47" s="58" t="s">
+        <v>332</v>
+      </c>
+      <c r="B47" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="D47" s="65" t="s">
-        <v>341</v>
+      <c r="C47" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="61" t="s">
+        <v>334</v>
       </c>
       <c r="E47" s="26">
         <v>1</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G47" s="26"/>
       <c r="H47" s="46" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I47" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="J47" s="64" t="s">
-        <v>392</v>
+        <v>441</v>
+      </c>
+      <c r="J47" s="58" t="s">
+        <v>385</v>
       </c>
       <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="66"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="62"/>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" s="31" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="G48" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="J48" s="62"/>
+        <v>442</v>
+      </c>
+      <c r="J48" s="59"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="67"/>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="71"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="25">
         <v>3</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="27" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>450</v>
-      </c>
-      <c r="J49" s="67"/>
+        <v>443</v>
+      </c>
+      <c r="J49" s="60"/>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="64" t="s">
-        <v>348</v>
-      </c>
-      <c r="B50" s="64" t="s">
+      <c r="A50" s="58" t="s">
+        <v>341</v>
+      </c>
+      <c r="B50" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="D50" s="65" t="s">
-        <v>349</v>
+      <c r="C50" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="D50" s="61" t="s">
+        <v>342</v>
       </c>
       <c r="E50" s="26">
         <v>1</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G50" s="26"/>
       <c r="H50" s="46" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I50" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="J50" s="64" t="s">
-        <v>392</v>
+        <v>441</v>
+      </c>
+      <c r="J50" s="58" t="s">
+        <v>385</v>
       </c>
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="66"/>
+      <c r="A51" s="59"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="62"/>
       <c r="E51">
         <v>2</v>
       </c>
       <c r="F51" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="G51" t="s">
+        <v>445</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>446</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>447</v>
+      </c>
+      <c r="J51" s="60"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="G51" t="s">
-        <v>452</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="J51" s="67"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="64" t="s">
-        <v>350</v>
-      </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="64" t="s">
-        <v>363</v>
-      </c>
-      <c r="D52" s="65" t="s">
-        <v>351</v>
+      <c r="C52" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>344</v>
       </c>
       <c r="E52" s="26">
         <v>1</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="H52" s="46" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="I52" s="46" t="s">
-        <v>455</v>
-      </c>
-      <c r="J52" s="64" t="s">
-        <v>392</v>
+        <v>448</v>
+      </c>
+      <c r="J52" s="58" t="s">
+        <v>385</v>
       </c>
       <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="62"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="66"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="62"/>
       <c r="E53">
         <v>2</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G53" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="J53" s="62"/>
+        <v>449</v>
+      </c>
+      <c r="J53" s="59"/>
     </row>
     <row r="54" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="62"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="66"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="62"/>
       <c r="E54">
         <v>3</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="I54" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="J54" s="62"/>
+        <v>450</v>
+      </c>
+      <c r="J54" s="59"/>
     </row>
     <row r="55" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="67"/>
-      <c r="B55" s="67"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="71"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="25">
         <v>4</v>
       </c>
@@ -6349,26 +6440,26 @@
       </c>
       <c r="G55" s="25"/>
       <c r="H55" s="27" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="J55" s="67"/>
+        <v>451</v>
+      </c>
+      <c r="J55" s="60"/>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="64" t="s">
-        <v>365</v>
-      </c>
-      <c r="B56" s="64" t="s">
+      <c r="A56" s="58" t="s">
+        <v>358</v>
+      </c>
+      <c r="B56" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="D56" s="65" t="s">
-        <v>366</v>
+      <c r="C56" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="D56" s="61" t="s">
+        <v>359</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -6377,183 +6468,183 @@
         <v>133</v>
       </c>
       <c r="G56" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>459</v>
-      </c>
-      <c r="J56" s="64" t="s">
-        <v>392</v>
+        <v>452</v>
+      </c>
+      <c r="J56" s="58" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="67"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="71"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="63"/>
       <c r="E57" s="25">
         <v>2</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G57" s="25"/>
       <c r="H57" s="27" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>460</v>
-      </c>
-      <c r="J57" s="67"/>
+        <v>453</v>
+      </c>
+      <c r="J57" s="60"/>
       <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="64" t="s">
-        <v>371</v>
-      </c>
-      <c r="B58" s="64" t="s">
+      <c r="A58" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="B58" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="61" t="s">
-        <v>372</v>
-      </c>
-      <c r="D58" s="65" t="s">
-        <v>373</v>
+      <c r="C58" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>366</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G58" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H58" s="20" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="J58" s="64" t="s">
-        <v>392</v>
+        <v>454</v>
+      </c>
+      <c r="J58" s="58" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="67"/>
-      <c r="B59" s="67"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="71"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="63"/>
       <c r="E59" s="25">
         <v>2</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G59" s="25"/>
       <c r="H59" s="27" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>462</v>
-      </c>
-      <c r="J59" s="67"/>
+        <v>455</v>
+      </c>
+      <c r="J59" s="60"/>
       <c r="K59" s="25"/>
     </row>
     <row r="60" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="61" t="s">
-        <v>539</v>
-      </c>
-      <c r="B60" s="61" t="s">
+      <c r="A60" s="64" t="s">
+        <v>532</v>
+      </c>
+      <c r="B60" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="C60" s="61" t="s">
-        <v>533</v>
-      </c>
-      <c r="D60" s="61" t="s">
-        <v>534</v>
+      <c r="C60" s="64" t="s">
+        <v>526</v>
+      </c>
+      <c r="D60" s="64" t="s">
+        <v>527</v>
       </c>
       <c r="E60" s="36">
         <v>1</v>
       </c>
       <c r="F60" s="36" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H60" s="36" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="I60" s="36" t="s">
-        <v>538</v>
-      </c>
-      <c r="J60" s="61" t="s">
-        <v>392</v>
-      </c>
-      <c r="K60" s="57" t="s">
-        <v>535</v>
+        <v>531</v>
+      </c>
+      <c r="J60" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="K60" s="81" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="56"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
       <c r="E61" s="36">
         <v>2</v>
       </c>
       <c r="F61" s="36" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="I61" s="36" t="s">
-        <v>543</v>
-      </c>
-      <c r="J61" s="56"/>
-      <c r="K61" s="58"/>
+        <v>536</v>
+      </c>
+      <c r="J61" s="66"/>
+      <c r="K61" s="82"/>
     </row>
     <row r="62" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="36" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B62" s="36" t="s">
         <v>183</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D62" s="36" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E62" s="36">
         <v>1</v>
       </c>
       <c r="F62" s="36" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="I62" s="36" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="J62" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K62" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -6565,22 +6656,22 @@
         <v>2</v>
       </c>
       <c r="F63" s="36" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="I63" s="36" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="J63" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K63" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -6592,19 +6683,19 @@
         <v>3</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="I64" s="36" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="J64" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K64" s="36"/>
     </row>
@@ -6617,22 +6708,22 @@
         <v>4</v>
       </c>
       <c r="F65" s="36" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="H65" s="36" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="I65" s="36" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="J65" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K65" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="87" x14ac:dyDescent="0.35">
@@ -6644,54 +6735,54 @@
         <v>5</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="I66" s="36" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="J66" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="36" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B67" s="36" t="s">
         <v>184</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E67" s="36">
         <v>1</v>
       </c>
       <c r="F67" s="36" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H67" s="36" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="I67" s="36" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="J67" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K67" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -6703,52 +6794,52 @@
         <v>2</v>
       </c>
       <c r="F68" s="36" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="H68" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="I68" s="36" t="s">
         <v>570</v>
       </c>
-      <c r="I68" s="36" t="s">
-        <v>577</v>
-      </c>
       <c r="J68" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K68" s="36"/>
     </row>
     <row r="69" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="36" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B69" s="36" t="s">
         <v>185</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D69" s="36" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E69" s="36">
         <v>1</v>
       </c>
       <c r="F69" s="36" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="G69" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H69" s="36" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="I69" s="36" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="J69" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -6760,51 +6851,51 @@
         <v>2</v>
       </c>
       <c r="F70" s="36" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="G70" s="36" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="H70" s="36" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="I70" s="36" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="J70" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="36" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B71" s="36" t="s">
         <v>186</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D71" s="36" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E71" s="36">
         <v>1</v>
       </c>
       <c r="F71" s="36" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="G71" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="I71" s="36" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="J71" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -6816,19 +6907,19 @@
         <v>2</v>
       </c>
       <c r="F72" s="36" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="G72" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="I72" s="36" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="J72" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="58" x14ac:dyDescent="0.35">
@@ -6840,19 +6931,19 @@
         <v>3</v>
       </c>
       <c r="F73" s="36" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="I73" s="36" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="J73" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -6864,51 +6955,51 @@
         <v>4</v>
       </c>
       <c r="F74" s="36" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="I74" s="36" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="J74" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A75" s="36" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="B75" s="36" t="s">
         <v>186</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="D75" s="36" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E75" s="36">
         <v>1</v>
       </c>
       <c r="F75" s="36" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="G75" s="36" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="I75" s="36" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="J75" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
@@ -6920,19 +7011,19 @@
         <v>2</v>
       </c>
       <c r="F76" s="36" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="G76" s="36" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I76" s="36" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="J76" s="36" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
@@ -6944,7 +7035,7 @@
         <v>3</v>
       </c>
       <c r="F77" s="36" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G77" s="36"/>
       <c r="H77" s="36"/>
@@ -6953,49 +7044,49 @@
       <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="56" t="s">
-        <v>608</v>
-      </c>
-      <c r="B78" s="56" t="s">
+      <c r="A78" s="66" t="s">
+        <v>601</v>
+      </c>
+      <c r="B78" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="59" t="s">
+      <c r="C78" s="83" t="s">
+        <v>600</v>
+      </c>
+      <c r="D78" s="66" t="s">
+        <v>602</v>
+      </c>
+      <c r="E78" s="83" t="s">
+        <v>603</v>
+      </c>
+      <c r="F78" s="66" t="s">
+        <v>604</v>
+      </c>
+      <c r="G78" s="84" t="s">
         <v>607</v>
       </c>
-      <c r="D78" s="56" t="s">
-        <v>609</v>
-      </c>
-      <c r="E78" s="59" t="s">
-        <v>610</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>611</v>
-      </c>
-      <c r="G78" s="60" t="s">
-        <v>614</v>
-      </c>
-      <c r="H78" s="56" t="s">
-        <v>612</v>
-      </c>
-      <c r="I78" s="56" t="s">
-        <v>613</v>
-      </c>
-      <c r="J78" s="59" t="s">
-        <v>392</v>
+      <c r="H78" s="66" t="s">
+        <v>605</v>
+      </c>
+      <c r="I78" s="66" t="s">
+        <v>606</v>
+      </c>
+      <c r="J78" s="83" t="s">
+        <v>385</v>
       </c>
       <c r="K78" s="36"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="56"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="59"/>
-      <c r="F79" s="56"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="59"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="83"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="83"/>
       <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -7011,518 +7102,402 @@
       <c r="J80" s="36"/>
     </row>
     <row r="82" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="62" t="s">
-        <v>262</v>
-      </c>
-      <c r="C82" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D82" s="56" t="s">
-        <v>475</v>
+      <c r="B82" s="59" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="D82" s="66" t="s">
+        <v>468</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82" s="35" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B83" s="62"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="62"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="59"/>
       <c r="E83">
         <v>2</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="G83" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H83" s="20" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="J83" s="54" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="62"/>
-      <c r="C84" s="56"/>
-      <c r="D84" s="62"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="59"/>
       <c r="E84">
         <v>3</v>
       </c>
       <c r="F84" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>465</v>
+      </c>
+      <c r="I84" s="20" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B85" s="59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="D85" s="66" t="s">
         <v>469</v>
-      </c>
-      <c r="H84" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="I84" s="20" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="85" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B85" s="62" t="s">
-        <v>263</v>
-      </c>
-      <c r="C85" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D85" s="56" t="s">
-        <v>476</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="G85" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H85" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>483</v>
-      </c>
-      <c r="J85" s="63" t="s">
-        <v>392</v>
+        <v>476</v>
+      </c>
+      <c r="J85" s="80" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B86" s="62"/>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
       <c r="E86">
         <v>2</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H86" s="20" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="J86" s="63"/>
+        <v>475</v>
+      </c>
+      <c r="J86" s="80"/>
     </row>
     <row r="87" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="62" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D87" s="56" t="s">
-        <v>484</v>
+      <c r="B87" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="D87" s="66" t="s">
+        <v>477</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87" s="35" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="G87" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="H87" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="J87" s="63" t="s">
-        <v>392</v>
+        <v>483</v>
+      </c>
+      <c r="J87" s="80" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B88" s="62"/>
-      <c r="C88" s="56"/>
-      <c r="D88" s="56"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
       <c r="E88">
         <v>2</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="H88" s="20" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="J88" s="63"/>
+        <v>482</v>
+      </c>
+      <c r="J88" s="80"/>
     </row>
     <row r="89" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="C89" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D89" s="56" t="s">
-        <v>491</v>
+      <c r="B89" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="D89" s="66" t="s">
+        <v>484</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="J89" s="63" t="s">
-        <v>399</v>
+        <v>485</v>
+      </c>
+      <c r="J89" s="80" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="62"/>
-      <c r="C90" s="56"/>
-      <c r="D90" s="56"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
       <c r="E90">
         <v>2</v>
       </c>
       <c r="F90" s="31" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G90" s="53" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="H90" s="20" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="J90" s="63"/>
+        <v>489</v>
+      </c>
+      <c r="J90" s="80"/>
     </row>
     <row r="91" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="C91" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D91" s="56" t="s">
-        <v>514</v>
+      <c r="B91" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C91" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="D91" s="66" t="s">
+        <v>507</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91" s="31" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H91" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="J91" s="63" t="s">
-        <v>392</v>
+        <v>492</v>
+      </c>
+      <c r="J91" s="80" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B92" s="62"/>
-      <c r="C92" s="56"/>
-      <c r="D92" s="56"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
       <c r="E92">
         <v>2</v>
       </c>
       <c r="F92" s="31" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="H92" s="20" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="J92" s="63"/>
+        <v>509</v>
+      </c>
+      <c r="J92" s="80"/>
     </row>
     <row r="93" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="62" t="s">
-        <v>267</v>
-      </c>
-      <c r="C93" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D93" s="62" t="s">
-        <v>501</v>
+      <c r="B93" s="59" t="s">
+        <v>261</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" s="59" t="s">
+        <v>494</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="F93" s="31" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="G93" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="H93" t="s">
-        <v>506</v>
-      </c>
-      <c r="J93" s="63" t="s">
-        <v>392</v>
+        <v>499</v>
+      </c>
+      <c r="J93" s="80" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="62"/>
-      <c r="C94" s="56"/>
-      <c r="D94" s="62"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="59"/>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94" s="31" t="s">
-        <v>503</v>
-      </c>
-      <c r="J94" s="63"/>
+        <v>496</v>
+      </c>
+      <c r="J94" s="80"/>
     </row>
     <row r="95" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B95" s="62"/>
-      <c r="C95" s="56"/>
-      <c r="D95" s="62"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="59"/>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95" s="31" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="H95" s="20" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="I95" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="J95" s="63"/>
+        <v>500</v>
+      </c>
+      <c r="J95" s="80"/>
     </row>
     <row r="96" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="62" t="s">
-        <v>268</v>
-      </c>
-      <c r="C96" s="56" t="s">
-        <v>466</v>
-      </c>
-      <c r="D96" s="62" t="s">
-        <v>508</v>
+      <c r="B96" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C96" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="D96" s="59" t="s">
+        <v>501</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
       <c r="F96" s="31" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G96" t="s">
-        <v>505</v>
-      </c>
-      <c r="J96" s="63" t="s">
-        <v>392</v>
+        <v>498</v>
+      </c>
+      <c r="J96" s="80" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B97" s="62"/>
-      <c r="C97" s="56"/>
-      <c r="D97" s="62"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="59"/>
       <c r="E97">
         <v>2</v>
       </c>
       <c r="F97" s="31" t="s">
+        <v>503</v>
+      </c>
+      <c r="H97" s="20" t="s">
+        <v>504</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="J97" s="80"/>
+    </row>
+    <row r="98" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="59" t="s">
+        <v>523</v>
+      </c>
+      <c r="C98" s="66" t="s">
+        <v>506</v>
+      </c>
+      <c r="D98" s="59" t="s">
         <v>510</v>
-      </c>
-      <c r="H97" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="I97" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="J97" s="63"/>
-    </row>
-    <row r="98" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="62" t="s">
-        <v>530</v>
-      </c>
-      <c r="C98" s="56" t="s">
-        <v>513</v>
-      </c>
-      <c r="D98" s="62" t="s">
-        <v>517</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
       <c r="F98" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="J98" s="63" t="s">
-        <v>531</v>
+        <v>485</v>
+      </c>
+      <c r="J98" s="80" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="62"/>
-      <c r="C99" s="56"/>
-      <c r="D99" s="62"/>
+      <c r="B99" s="59"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="59"/>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99" s="31" t="s">
+        <v>511</v>
+      </c>
+      <c r="G99" t="s">
+        <v>517</v>
+      </c>
+      <c r="H99" t="s">
         <v>518</v>
       </c>
-      <c r="G99" t="s">
-        <v>524</v>
-      </c>
-      <c r="H99" t="s">
-        <v>525</v>
-      </c>
       <c r="I99" t="s">
-        <v>526</v>
-      </c>
-      <c r="J99" s="63"/>
+        <v>519</v>
+      </c>
+      <c r="J99" s="80"/>
     </row>
     <row r="100" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B100" s="62"/>
-      <c r="C100" s="56"/>
-      <c r="D100" s="62"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="59"/>
       <c r="E100">
         <v>3</v>
       </c>
       <c r="F100" s="31" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="G100" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>529</v>
-      </c>
-      <c r="J100" s="63"/>
+        <v>522</v>
+      </c>
+      <c r="J100" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="J96:J97"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="F78:F79"/>
@@ -7539,6 +7514,122 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="J60:J61"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -7553,8 +7644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB982B-902A-43BA-8648-421444C00694}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7572,225 +7663,292 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B1" s="52" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="H1" s="52" t="s">
         <v>104</v>
       </c>
       <c r="I1" s="52" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" t="s">
         <v>401</v>
-      </c>
-      <c r="B2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="E2" t="s">
-        <v>405</v>
-      </c>
-      <c r="F2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>407</v>
-      </c>
-      <c r="H2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>409</v>
-      </c>
       <c r="D3" s="20" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E3" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="F3" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G3" s="53" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F4" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="G4" s="53" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H4" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" t="s">
         <v>431</v>
       </c>
-      <c r="E5" t="s">
-        <v>438</v>
-      </c>
       <c r="F5" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="G5" s="53" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H5" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" t="s">
+        <v>415</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E6" t="s">
         <v>432</v>
       </c>
-      <c r="B6" t="s">
-        <v>422</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>437</v>
-      </c>
-      <c r="E6" t="s">
-        <v>439</v>
-      </c>
       <c r="F6" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G6" s="53" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="83" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="83" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>611</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>612</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="F7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>615</v>
+      </c>
+      <c r="E8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="116" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>618</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>615</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>617</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="B9" s="36" t="s">
         <v>619</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>616</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>427</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>407</v>
-      </c>
-      <c r="H7" s="83" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="83" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="83" t="s">
+      <c r="C9" s="55" t="s">
+        <v>623</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>622</v>
+      </c>
+      <c r="E9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F9" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="322.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>620</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>625</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>626</v>
+      </c>
+      <c r="E10" t="s">
         <v>624</v>
       </c>
-      <c r="C8" t="s">
-        <v>623</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>622</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G10" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>621</v>
       </c>
-      <c r="F8" s="83" t="s">
-        <v>427</v>
-      </c>
-      <c r="G8" s="84" t="s">
-        <v>407</v>
-      </c>
-      <c r="H8" s="83" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B9" s="36"/>
-      <c r="D9" s="36"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B10" s="36"/>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="E11" t="s">
+        <v>639</v>
+      </c>
+      <c r="F11" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="56" t="s">
+        <v>400</v>
+      </c>
+      <c r="H11" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B12" s="36"/>
@@ -7800,45 +7958,46 @@
     </row>
     <row r="20" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F20" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="H20" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="87" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E21" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F21" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="H21" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{05FAC000-F652-4675-98FB-BBCCA2160849}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{1B67D575-DCF6-4C18-8A51-97B3EE9E92CF}"/>
@@ -7847,8 +8006,11 @@
     <hyperlink ref="G6" r:id="rId5" xr:uid="{6AE1C0A3-95AF-4573-903E-297F5A2C6B2B}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{DF0209A5-FA59-4B98-8F26-F8AEBFB99380}"/>
     <hyperlink ref="G8" r:id="rId7" xr:uid="{2892D10C-EBBE-40E6-A581-F03BF49B9160}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{9D03C4A8-0DC7-4B1F-A0A9-46CECE229339}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{4005F3E4-759C-40FF-8D86-374032EAE55C}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{75C69A9C-58A7-4B5A-8EE7-9AEAF4D3BEF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId8"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/Orange.xlsx
+++ b/Orange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302809\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\302917\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98E3BD6-6A97-46A0-B641-AF4F088DD3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078152FE-9E7E-477A-9C70-B945B5F1398C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="3" xr2:uid="{2E6A2184-8419-4B30-A13E-A1B5190D2FD7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{2E6A2184-8419-4B30-A13E-A1B5190D2FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="User Stories" sheetId="1" r:id="rId1"/>
@@ -38,8 +38,50 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="3">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="3">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="759">
   <si>
     <t>Issue Type</t>
   </si>
@@ -2127,12 +2169,422 @@
   <si>
     <t>Date appeared</t>
   </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>User adds valid personal details</t>
+  </si>
+  <si>
+    <t>Navigate to Personal 
+Details page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>User navigates to Personal details successfully</t>
+  </si>
+  <si>
+    <t>User navigated to Personal details successfully</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Valid Name</t>
+  </si>
+  <si>
+    <t>Name Appeared.</t>
+  </si>
+  <si>
+    <t>Enter Employee id</t>
+  </si>
+  <si>
+    <t>Valid Employee id</t>
+  </si>
+  <si>
+    <t>Employee id appeared.</t>
+  </si>
+  <si>
+    <t>Enter DOB</t>
+  </si>
+  <si>
+    <t>Valid DOB</t>
+  </si>
+  <si>
+    <t>DOB appeared</t>
+  </si>
+  <si>
+    <t>Save personal details</t>
+  </si>
+  <si>
+    <t>Personal details saved
+successfully</t>
+  </si>
+  <si>
+    <t>User enters blank name</t>
+  </si>
+  <si>
+    <t>Navigate to Personal
+ Details page</t>
+  </si>
+  <si>
+    <t>Leave name</t>
+  </si>
+  <si>
+    <t>Name = ""</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>Error message displayed:
+ "Name cannot be blank"</t>
+  </si>
+  <si>
+    <t>User enters invalid Employee ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Personal
+ Details page </t>
+  </si>
+  <si>
+    <t>Enter invalid Employee ID</t>
+  </si>
+  <si>
+    <t>Employee ID = "ABC123"</t>
+  </si>
+  <si>
+    <t>Error message displayed
+: "Invalid Employee ID"</t>
+  </si>
+  <si>
+    <t>Employee id Accepted.</t>
+  </si>
+  <si>
+    <t>User enters invalid DOB</t>
+  </si>
+  <si>
+    <t>User navigated to Personal
+ details successfully</t>
+  </si>
+  <si>
+    <t>Enter invalid DOB</t>
+  </si>
+  <si>
+    <t>DOB = "15/12/2025"</t>
+  </si>
+  <si>
+    <t>Error message displayed:
+ "Invalid Date of Birth"</t>
+  </si>
+  <si>
+    <t>DOB Accepted</t>
+  </si>
+  <si>
+    <t>User uploads attachment</t>
+  </si>
+  <si>
+    <t>Navigate to Personal Details
+ page</t>
+  </si>
+  <si>
+    <t>Click Add and select file</t>
+  </si>
+  <si>
+    <t>File = "resume.pdf"</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>File appeared</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Attachment uploaded
+ successfully</t>
+  </si>
+  <si>
+    <t>User adds valid contact details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Contact Details 
+page </t>
+  </si>
+  <si>
+    <t>User navigates to Contact details successfully</t>
+  </si>
+  <si>
+    <t>User navigated to Contact 
+details successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter valid phone/Email and 
+Save</t>
+  </si>
+  <si>
+    <t>Phone = "9876543210",
+ Email ="test@mail.com"</t>
+  </si>
+  <si>
+    <t>Contact details saved 
+successfully</t>
+  </si>
+  <si>
+    <t>User enters blank contact details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Contact
+ Details page </t>
+  </si>
+  <si>
+    <t>User navigated to Contact
+ details successfully</t>
+  </si>
+  <si>
+    <t>Leave fields blank  and save</t>
+  </si>
+  <si>
+    <t>Phone = "", Email = ""</t>
+  </si>
+  <si>
+    <t>Error message displayed:
+ "Contact details required"</t>
+  </si>
+  <si>
+    <t>User adds valid emergency contact</t>
+  </si>
+  <si>
+    <t>Navigate to Emergency 
+Contacts page .</t>
+  </si>
+  <si>
+    <t>User Navigates to Emergency Contacts Page</t>
+  </si>
+  <si>
+    <t>User Navigated to 
+Emergency Contacts Page</t>
+  </si>
+  <si>
+    <t>Enter valid details attachment and Save</t>
+  </si>
+  <si>
+    <t>File = "Econtacts.pdf"</t>
+  </si>
+  <si>
+    <t>Emergency contact file saved successfully</t>
+  </si>
+  <si>
+    <t>Emergency contact file 
+saved successfully</t>
+  </si>
+  <si>
+    <t>User adds dependent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Dependents 
+page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User navigates to Dependents page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User avigated to Dependents page </t>
+  </si>
+  <si>
+    <t>Enter dependent details
+ and save</t>
+  </si>
+  <si>
+    <t>File ="Dependents.pdf"</t>
+  </si>
+  <si>
+    <t>Dependent added
+ successfully</t>
+  </si>
+  <si>
+    <t>User adds job details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Job Details
+ page </t>
+  </si>
+  <si>
+    <t>User navigates to Job Details page</t>
+  </si>
+  <si>
+    <t>User navigated to Job Details page</t>
+  </si>
+  <si>
+    <t>Enter valid job info and save</t>
+  </si>
+  <si>
+    <t>Job Title = "Developer"</t>
+  </si>
+  <si>
+    <t>Job details saved 
+successfully</t>
+  </si>
+  <si>
+    <t>User adds salary details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Salary page </t>
+  </si>
+  <si>
+    <t>User navigates to Salary page</t>
+  </si>
+  <si>
+    <t>User navigated to Salary
+ page</t>
+  </si>
+  <si>
+    <t>Enter valid salary info 
+and Save</t>
+  </si>
+  <si>
+    <t>File="Salary.pdf"</t>
+  </si>
+  <si>
+    <t>Salary details saved
+ successfully</t>
+  </si>
+  <si>
+    <t>User adds qualification details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigate to Qualification page </t>
+  </si>
+  <si>
+    <t>User navigates to 
+Qualification page</t>
+  </si>
+  <si>
+    <t>User navigated to 
+Qualification page</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enter valid qualification
+ and Save</t>
+  </si>
+  <si>
+    <t>File="Qualification.pdf"</t>
+  </si>
+  <si>
+    <t>Qualification details 
+saved successfully</t>
+  </si>
+  <si>
+    <t>Personal details saved successfully</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>TS_042</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>My Info</t>
+  </si>
+  <si>
+    <t>User is able to enter invalid Employee ID</t>
+  </si>
+  <si>
+    <t>Steps:
+1.Go to My Info
+2.Go to Personal
+3.Enter Employee id
+4.Enter invalid data
+5.Click save"</t>
+  </si>
+  <si>
+    <t>User is able to add invalid 
+data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Active</t>
+  </si>
+  <si>
+    <t>User is able to enter 
+invalid DOB</t>
+  </si>
+  <si>
+    <t>Steps:
+1.Go to My Info
+2.Go to Personal
+2.Enter DOB
+3.Enter invalid data
+4.Click save"</t>
+  </si>
+  <si>
+    <t>User is able to enter
+blank contact data</t>
+  </si>
+  <si>
+    <t>Steps:
+1.Go to My Info
+2.Go to Contact
+3.Enter Contact mail and 
+phone
+4.Enter blank data
+5.Click save"</t>
+  </si>
+  <si>
+    <t>Actiive</t>
+  </si>
+  <si>
+    <t>DF_13</t>
+  </si>
+  <si>
+    <t>DF_14</t>
+  </si>
+  <si>
+    <t>DF_15</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2196,8 +2648,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2273,6 +2743,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4B084"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2527,7 +3003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2659,77 +3135,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2743,8 +3156,92 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3164,7 +3661,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>3746500</xdr:colOff>
+      <xdr:colOff>3736879</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>698500</xdr:rowOff>
     </xdr:to>
@@ -3332,6 +3829,80 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3668,7 +4239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23E4D41-95FE-4CA4-9315-15C62742C9E7}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A42" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3679,11 +4250,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -3751,11 +4322,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
@@ -3822,11 +4393,11 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
@@ -3901,11 +4472,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3924,7 +4495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>5</v>
       </c>
@@ -3956,7 +4527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>36</v>
       </c>
@@ -3965,11 +4536,11 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="23" t="s">
@@ -4052,8 +4623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B89BEC-B47F-4DF1-B3F8-9E58E30A2F6D}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4969,7 +5540,7 @@
         <v>166</v>
       </c>
       <c r="E43" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="20" t="s">
         <v>242</v>
@@ -4990,7 +5561,7 @@
         <v>166</v>
       </c>
       <c r="E44" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" s="20" t="s">
         <v>244</v>
@@ -5011,7 +5582,7 @@
         <v>166</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" s="20" t="s">
         <v>246</v>
@@ -5032,7 +5603,7 @@
         <v>166</v>
       </c>
       <c r="E46" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" s="20" t="s">
         <v>248</v>
@@ -5053,7 +5624,7 @@
         <v>166</v>
       </c>
       <c r="E47" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="20" t="s">
         <v>250</v>
@@ -5071,10 +5642,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57A9CE4C-2A62-44A6-B5F2-44C102142D8D}">
-  <dimension ref="A1:L100"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78:I79"/>
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5093,31 +5664,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="62" x14ac:dyDescent="0.35">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="82" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="76" t="s">
+      <c r="H1" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="I1" s="75" t="s">
         <v>103</v>
       </c>
       <c r="J1" s="47" t="s">
@@ -5128,15 +5699,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="108.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="71"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
+      <c r="A2" s="83"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="48" t="s">
         <v>105</v>
       </c>
@@ -5145,16 +5716,16 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="72" t="s">
         <v>456</v>
       </c>
       <c r="E3">
@@ -5172,15 +5743,15 @@
       <c r="I3" t="s">
         <v>379</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="67" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="59"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="69"/>
       <c r="E4">
         <v>2</v>
       </c>
@@ -5196,13 +5767,13 @@
       <c r="I4" t="s">
         <v>380</v>
       </c>
-      <c r="J4" s="59"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="59"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="62"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="69"/>
       <c r="E5">
         <v>3</v>
       </c>
@@ -5218,13 +5789,13 @@
       <c r="I5" t="s">
         <v>381</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="62"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="69"/>
       <c r="E6">
         <v>4</v>
       </c>
@@ -5240,13 +5811,13 @@
       <c r="I6" t="s">
         <v>382</v>
       </c>
-      <c r="J6" s="59"/>
+      <c r="J6" s="65"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="62"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="69"/>
       <c r="E7">
         <v>5</v>
       </c>
@@ -5262,13 +5833,13 @@
       <c r="I7" t="s">
         <v>383</v>
       </c>
-      <c r="J7" s="59"/>
+      <c r="J7" s="65"/>
     </row>
     <row r="8" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="63"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="25">
         <v>6</v>
       </c>
@@ -5282,20 +5853,20 @@
       <c r="I8" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="J8" s="60"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="67" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="72" t="s">
         <v>457</v>
       </c>
       <c r="E9">
@@ -5313,15 +5884,15 @@
       <c r="I9" t="s">
         <v>390</v>
       </c>
-      <c r="J9" s="58" t="s">
+      <c r="J9" s="67" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="68"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="77"/>
       <c r="E10">
         <v>2</v>
       </c>
@@ -5337,13 +5908,13 @@
       <c r="I10" t="s">
         <v>380</v>
       </c>
-      <c r="J10" s="59"/>
+      <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="68"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="77"/>
       <c r="E11">
         <v>3</v>
       </c>
@@ -5359,13 +5930,13 @@
       <c r="I11" t="s">
         <v>391</v>
       </c>
-      <c r="J11" s="59"/>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="68"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="77"/>
       <c r="E12">
         <v>4</v>
       </c>
@@ -5381,13 +5952,13 @@
       <c r="I12" t="s">
         <v>389</v>
       </c>
-      <c r="J12" s="59"/>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="68"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="77"/>
       <c r="E13">
         <v>5</v>
       </c>
@@ -5403,13 +5974,13 @@
       <c r="I13" t="s">
         <v>383</v>
       </c>
-      <c r="J13" s="59"/>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="69"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="73"/>
       <c r="E14" s="25">
         <v>6</v>
       </c>
@@ -5423,20 +5994,20 @@
       <c r="I14" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="72" t="s">
         <v>458</v>
       </c>
       <c r="E15">
@@ -5454,15 +6025,15 @@
       <c r="I15" t="s">
         <v>379</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="67" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="68"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="77"/>
       <c r="E16">
         <v>2</v>
       </c>
@@ -5478,13 +6049,13 @@
       <c r="I16" t="s">
         <v>380</v>
       </c>
-      <c r="J16" s="59"/>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="68"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="77"/>
       <c r="E17">
         <v>3</v>
       </c>
@@ -5500,13 +6071,13 @@
       <c r="I17" t="s">
         <v>381</v>
       </c>
-      <c r="J17" s="59"/>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="77"/>
       <c r="E18">
         <v>4</v>
       </c>
@@ -5522,13 +6093,13 @@
       <c r="I18" t="s">
         <v>393</v>
       </c>
-      <c r="J18" s="59"/>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="59"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="68"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="77"/>
       <c r="E19">
         <v>5</v>
       </c>
@@ -5544,13 +6115,13 @@
       <c r="I19" t="s">
         <v>383</v>
       </c>
-      <c r="J19" s="59"/>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="69"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="25">
         <v>6</v>
       </c>
@@ -5564,20 +6135,20 @@
       <c r="I20" s="27" t="s">
         <v>384</v>
       </c>
-      <c r="J20" s="60"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="D21" s="67" t="s">
+      <c r="D21" s="72" t="s">
         <v>128</v>
       </c>
       <c r="E21">
@@ -5595,15 +6166,15 @@
       <c r="I21" t="s">
         <v>379</v>
       </c>
-      <c r="J21" s="58" t="s">
+      <c r="J21" s="67" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="68"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="77"/>
       <c r="E22">
         <v>2</v>
       </c>
@@ -5619,13 +6190,13 @@
       <c r="I22" t="s">
         <v>380</v>
       </c>
-      <c r="J22" s="59"/>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="59"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="68"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="77"/>
       <c r="E23">
         <v>3</v>
       </c>
@@ -5641,13 +6212,13 @@
       <c r="I23" t="s">
         <v>381</v>
       </c>
-      <c r="J23" s="59"/>
+      <c r="J23" s="65"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="77"/>
       <c r="E24">
         <v>4</v>
       </c>
@@ -5663,13 +6234,13 @@
       <c r="I24" t="s">
         <v>382</v>
       </c>
-      <c r="J24" s="59"/>
+      <c r="J24" s="65"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="68"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="77"/>
       <c r="E25">
         <v>5</v>
       </c>
@@ -5685,19 +6256,19 @@
       <c r="I25" t="s">
         <v>406</v>
       </c>
-      <c r="J25" s="60"/>
+      <c r="J25" s="70"/>
     </row>
     <row r="26" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="58" t="s">
+      <c r="C26" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="72" t="s">
         <v>132</v>
       </c>
       <c r="E26" s="26">
@@ -5715,16 +6286,16 @@
       <c r="I26" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="J26" s="58" t="s">
+      <c r="J26" s="67" t="s">
         <v>385</v>
       </c>
       <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="60"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="69"/>
+      <c r="A27" s="70"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="73"/>
       <c r="E27" s="25">
         <v>2</v>
       </c>
@@ -5738,20 +6309,20 @@
       <c r="I27" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="J27" s="60"/>
+      <c r="J27" s="70"/>
       <c r="K27" s="25"/>
     </row>
     <row r="28" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="58" t="s">
+      <c r="A28" s="67" t="s">
         <v>145</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="67" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D28" s="61" t="s">
+      <c r="D28" s="68" t="s">
         <v>147</v>
       </c>
       <c r="E28" s="26">
@@ -5769,16 +6340,16 @@
       <c r="I28" s="34" t="s">
         <v>408</v>
       </c>
-      <c r="J28" s="58" t="s">
+      <c r="J28" s="67" t="s">
         <v>385</v>
       </c>
       <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="62"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="69"/>
       <c r="E29">
         <v>2</v>
       </c>
@@ -5794,13 +6365,13 @@
       <c r="I29" t="s">
         <v>409</v>
       </c>
-      <c r="J29" s="59"/>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="59"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="62"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="69"/>
       <c r="E30">
         <v>3</v>
       </c>
@@ -5816,13 +6387,13 @@
       <c r="I30" t="s">
         <v>410</v>
       </c>
-      <c r="J30" s="59"/>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="60"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="63"/>
+      <c r="A31" s="70"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="74"/>
       <c r="E31" s="25">
         <v>4</v>
       </c>
@@ -5836,20 +6407,20 @@
       <c r="I31" s="25" t="s">
         <v>411</v>
       </c>
-      <c r="J31" s="60"/>
+      <c r="J31" s="70"/>
       <c r="K31" s="25"/>
     </row>
     <row r="32" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="58" t="s">
+      <c r="A32" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="67" t="s">
         <v>90</v>
       </c>
       <c r="C32" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D32" s="67" t="s">
+      <c r="D32" s="72" t="s">
         <v>213</v>
       </c>
       <c r="E32" s="26">
@@ -5867,16 +6438,16 @@
       <c r="I32" s="26" t="s">
         <v>412</v>
       </c>
-      <c r="J32" s="58" t="s">
+      <c r="J32" s="67" t="s">
         <v>392</v>
       </c>
       <c r="K32" s="26"/>
     </row>
     <row r="33" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="60"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="69"/>
+      <c r="A33" s="70"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="73"/>
       <c r="E33" s="25">
         <v>2</v>
       </c>
@@ -5890,20 +6461,20 @@
       <c r="I33" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J33" s="60"/>
+      <c r="J33" s="70"/>
       <c r="K33" s="25"/>
     </row>
     <row r="34" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="58" t="s">
+      <c r="A34" s="67" t="s">
         <v>305</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="67" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D34" s="67" t="s">
+      <c r="D34" s="72" t="s">
         <v>217</v>
       </c>
       <c r="E34" s="26">
@@ -5921,16 +6492,16 @@
       <c r="I34" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="J34" s="58" t="s">
+      <c r="J34" s="67" t="s">
         <v>392</v>
       </c>
       <c r="K34" s="26"/>
     </row>
     <row r="35" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="69"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="73"/>
       <c r="E35" s="25">
         <v>2</v>
       </c>
@@ -5944,20 +6515,20 @@
       <c r="I35" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J35" s="60"/>
+      <c r="J35" s="70"/>
       <c r="K35" s="25"/>
     </row>
     <row r="36" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="67" t="s">
         <v>90</v>
       </c>
       <c r="C36" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="72" t="s">
         <v>220</v>
       </c>
       <c r="E36" s="26">
@@ -5975,16 +6546,16 @@
       <c r="I36" s="26" t="s">
         <v>427</v>
       </c>
-      <c r="J36" s="58" t="s">
+      <c r="J36" s="67" t="s">
         <v>392</v>
       </c>
       <c r="K36" s="26"/>
     </row>
     <row r="37" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="60"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="69"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="25">
         <v>2</v>
       </c>
@@ -5998,7 +6569,7 @@
       <c r="I37" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="J37" s="60"/>
+      <c r="J37" s="70"/>
       <c r="K37" s="25"/>
     </row>
     <row r="38" spans="1:11" ht="29" x14ac:dyDescent="0.35">
@@ -6033,16 +6604,16 @@
       <c r="K38" s="40"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="58" t="s">
+      <c r="A39" s="67" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="67" t="s">
         <v>308</v>
       </c>
-      <c r="D39" s="61" t="s">
+      <c r="D39" s="68" t="s">
         <v>309</v>
       </c>
       <c r="E39">
@@ -6060,15 +6631,15 @@
       <c r="I39" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="J39" s="58" t="s">
+      <c r="J39" s="67" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A40" s="59"/>
-      <c r="B40" s="59"/>
-      <c r="C40" s="59"/>
-      <c r="D40" s="62"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="69"/>
       <c r="E40">
         <v>2</v>
       </c>
@@ -6084,13 +6655,13 @@
       <c r="I40" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="J40" s="59"/>
+      <c r="J40" s="65"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="59"/>
-      <c r="B41" s="59"/>
-      <c r="C41" s="59"/>
-      <c r="D41" s="62"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="69"/>
       <c r="E41">
         <v>3</v>
       </c>
@@ -6106,13 +6677,13 @@
       <c r="I41" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="J41" s="59"/>
+      <c r="J41" s="65"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="62"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="69"/>
       <c r="E42">
         <v>4</v>
       </c>
@@ -6128,13 +6699,13 @@
       <c r="I42" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="J42" s="59"/>
+      <c r="J42" s="65"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="59"/>
-      <c r="B43" s="59"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="62"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="69"/>
       <c r="E43">
         <v>5</v>
       </c>
@@ -6150,13 +6721,13 @@
       <c r="I43" s="20" t="s">
         <v>437</v>
       </c>
-      <c r="J43" s="59"/>
+      <c r="J43" s="65"/>
     </row>
     <row r="44" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="63"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="74"/>
       <c r="E44">
         <v>6</v>
       </c>
@@ -6169,7 +6740,7 @@
       <c r="I44" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="J44" s="60"/>
+      <c r="J44" s="70"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
@@ -6197,7 +6768,7 @@
       <c r="I45" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="J45" s="58" t="s">
+      <c r="J45" s="67" t="s">
         <v>385</v>
       </c>
       <c r="K45" s="26"/>
@@ -6220,20 +6791,20 @@
       <c r="I46" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="J46" s="60"/>
+      <c r="J46" s="70"/>
       <c r="K46" s="25"/>
     </row>
     <row r="47" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="67" t="s">
         <v>332</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="68" t="s">
         <v>334</v>
       </c>
       <c r="E47" s="26">
@@ -6249,16 +6820,16 @@
       <c r="I47" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="J47" s="58" t="s">
+      <c r="J47" s="67" t="s">
         <v>385</v>
       </c>
       <c r="K47" s="26"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="59"/>
-      <c r="B48" s="59"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="62"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="69"/>
       <c r="E48">
         <v>2</v>
       </c>
@@ -6274,13 +6845,13 @@
       <c r="I48" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="J48" s="59"/>
+      <c r="J48" s="65"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="63"/>
+      <c r="A49" s="70"/>
+      <c r="B49" s="70"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="74"/>
       <c r="E49" s="25">
         <v>3</v>
       </c>
@@ -6294,20 +6865,20 @@
       <c r="I49" s="27" t="s">
         <v>443</v>
       </c>
-      <c r="J49" s="60"/>
+      <c r="J49" s="70"/>
       <c r="K49" s="25"/>
     </row>
     <row r="50" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="D50" s="61" t="s">
+      <c r="D50" s="68" t="s">
         <v>342</v>
       </c>
       <c r="E50" s="26">
@@ -6323,16 +6894,16 @@
       <c r="I50" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="J50" s="58" t="s">
+      <c r="J50" s="67" t="s">
         <v>385</v>
       </c>
       <c r="K50" s="26"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="59"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="62"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="69"/>
       <c r="E51">
         <v>2</v>
       </c>
@@ -6348,19 +6919,19 @@
       <c r="I51" s="20" t="s">
         <v>447</v>
       </c>
-      <c r="J51" s="60"/>
+      <c r="J51" s="70"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="58" t="s">
+      <c r="A52" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="68" t="s">
         <v>344</v>
       </c>
       <c r="E52" s="26">
@@ -6378,16 +6949,16 @@
       <c r="I52" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="J52" s="58" t="s">
+      <c r="J52" s="67" t="s">
         <v>385</v>
       </c>
       <c r="K52" s="26"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="59"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="62"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="69"/>
       <c r="E53">
         <v>2</v>
       </c>
@@ -6403,13 +6974,13 @@
       <c r="I53" s="20" t="s">
         <v>449</v>
       </c>
-      <c r="J53" s="59"/>
+      <c r="J53" s="65"/>
     </row>
     <row r="54" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="59"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="62"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="69"/>
       <c r="E54">
         <v>3</v>
       </c>
@@ -6425,13 +6996,13 @@
       <c r="I54" s="20" t="s">
         <v>450</v>
       </c>
-      <c r="J54" s="59"/>
+      <c r="J54" s="65"/>
     </row>
     <row r="55" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="63"/>
+      <c r="A55" s="70"/>
+      <c r="B55" s="70"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="74"/>
       <c r="E55" s="25">
         <v>4</v>
       </c>
@@ -6445,20 +7016,20 @@
       <c r="I55" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="J55" s="60"/>
+      <c r="J55" s="70"/>
       <c r="K55" s="25"/>
     </row>
     <row r="56" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="58" t="s">
+      <c r="A56" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="67" t="s">
         <v>94</v>
       </c>
       <c r="C56" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="68" t="s">
         <v>359</v>
       </c>
       <c r="E56">
@@ -6476,15 +7047,15 @@
       <c r="I56" s="20" t="s">
         <v>452</v>
       </c>
-      <c r="J56" s="58" t="s">
+      <c r="J56" s="67" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A57" s="60"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="63"/>
+      <c r="A57" s="70"/>
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="25">
         <v>2</v>
       </c>
@@ -6498,20 +7069,20 @@
       <c r="I57" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="J57" s="60"/>
+      <c r="J57" s="70"/>
       <c r="K57" s="25"/>
     </row>
     <row r="58" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="67" t="s">
         <v>364</v>
       </c>
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="67" t="s">
         <v>94</v>
       </c>
       <c r="C58" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="D58" s="61" t="s">
+      <c r="D58" s="68" t="s">
         <v>366</v>
       </c>
       <c r="E58">
@@ -6529,15 +7100,15 @@
       <c r="I58" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="J58" s="58" t="s">
+      <c r="J58" s="67" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="63"/>
+      <c r="A59" s="70"/>
+      <c r="B59" s="70"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="25">
         <v>2</v>
       </c>
@@ -6551,7 +7122,7 @@
       <c r="I59" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="J59" s="60"/>
+      <c r="J59" s="70"/>
       <c r="K59" s="25"/>
     </row>
     <row r="60" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6585,15 +7156,15 @@
       <c r="J60" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="K60" s="81" t="s">
+      <c r="K60" s="60" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="66"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="36">
         <v>2</v>
       </c>
@@ -6609,8 +7180,8 @@
       <c r="I61" s="36" t="s">
         <v>536</v>
       </c>
-      <c r="J61" s="66"/>
-      <c r="K61" s="82"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="61"/>
     </row>
     <row r="62" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="36" t="s">
@@ -7044,49 +7615,49 @@
       <c r="K77" s="36"/>
     </row>
     <row r="78" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="66" t="s">
+      <c r="A78" s="59" t="s">
         <v>601</v>
       </c>
-      <c r="B78" s="66" t="s">
+      <c r="B78" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="62" t="s">
         <v>600</v>
       </c>
-      <c r="D78" s="66" t="s">
+      <c r="D78" s="59" t="s">
         <v>602</v>
       </c>
-      <c r="E78" s="83" t="s">
+      <c r="E78" s="62" t="s">
         <v>603</v>
       </c>
-      <c r="F78" s="66" t="s">
+      <c r="F78" s="59" t="s">
         <v>604</v>
       </c>
-      <c r="G78" s="84" t="s">
+      <c r="G78" s="63" t="s">
         <v>607</v>
       </c>
-      <c r="H78" s="66" t="s">
+      <c r="H78" s="59" t="s">
         <v>605</v>
       </c>
-      <c r="I78" s="66" t="s">
+      <c r="I78" s="59" t="s">
         <v>606</v>
       </c>
-      <c r="J78" s="83" t="s">
+      <c r="J78" s="62" t="s">
         <v>385</v>
       </c>
       <c r="K78" s="36"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A79" s="66"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="83"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="83"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="83"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="62"/>
+      <c r="D79" s="59"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="63"/>
+      <c r="H79" s="59"/>
+      <c r="I79" s="59"/>
+      <c r="J79" s="62"/>
       <c r="K79" s="36"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -7102,13 +7673,13 @@
       <c r="J80" s="36"/>
     </row>
     <row r="82" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D82" s="66" t="s">
+      <c r="D82" s="59" t="s">
         <v>468</v>
       </c>
       <c r="E82">
@@ -7119,9 +7690,9 @@
       </c>
     </row>
     <row r="83" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B83" s="59"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="59"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="65"/>
       <c r="E83">
         <v>2</v>
       </c>
@@ -7142,9 +7713,9 @@
       </c>
     </row>
     <row r="84" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B84" s="59"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="59"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="65"/>
       <c r="E84">
         <v>3</v>
       </c>
@@ -7159,13 +7730,13 @@
       </c>
     </row>
     <row r="85" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="C85" s="66" t="s">
+      <c r="C85" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D85" s="66" t="s">
+      <c r="D85" s="59" t="s">
         <v>469</v>
       </c>
       <c r="E85">
@@ -7183,14 +7754,14 @@
       <c r="I85" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="J85" s="80" t="s">
+      <c r="J85" s="66" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B86" s="59"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
       <c r="E86">
         <v>2</v>
       </c>
@@ -7203,16 +7774,16 @@
       <c r="I86" s="20" t="s">
         <v>475</v>
       </c>
-      <c r="J86" s="80"/>
+      <c r="J86" s="66"/>
     </row>
     <row r="87" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="65" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="66" t="s">
+      <c r="C87" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D87" s="66" t="s">
+      <c r="D87" s="59" t="s">
         <v>477</v>
       </c>
       <c r="E87">
@@ -7230,14 +7801,14 @@
       <c r="I87" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="J87" s="80" t="s">
+      <c r="J87" s="66" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B88" s="59"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
       <c r="E88">
         <v>2</v>
       </c>
@@ -7250,16 +7821,16 @@
       <c r="I88" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="J88" s="80"/>
+      <c r="J88" s="66"/>
     </row>
     <row r="89" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="65" t="s">
         <v>259</v>
       </c>
-      <c r="C89" s="66" t="s">
+      <c r="C89" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D89" s="66" t="s">
+      <c r="D89" s="59" t="s">
         <v>484</v>
       </c>
       <c r="E89">
@@ -7268,14 +7839,14 @@
       <c r="F89" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="J89" s="80" t="s">
+      <c r="J89" s="66" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="59"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
       <c r="E90">
         <v>2</v>
       </c>
@@ -7291,16 +7862,16 @@
       <c r="I90" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="J90" s="80"/>
+      <c r="J90" s="66"/>
     </row>
     <row r="91" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="65" t="s">
         <v>260</v>
       </c>
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D91" s="66" t="s">
+      <c r="D91" s="59" t="s">
         <v>507</v>
       </c>
       <c r="E91">
@@ -7315,14 +7886,14 @@
       <c r="I91" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="J91" s="80" t="s">
+      <c r="J91" s="66" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B92" s="59"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
       <c r="E92">
         <v>2</v>
       </c>
@@ -7335,16 +7906,16 @@
       <c r="I92" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="J92" s="80"/>
+      <c r="J92" s="66"/>
     </row>
     <row r="93" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="59" t="s">
+      <c r="B93" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="C93" s="66" t="s">
+      <c r="C93" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D93" s="59" t="s">
+      <c r="D93" s="65" t="s">
         <v>494</v>
       </c>
       <c r="E93">
@@ -7359,26 +7930,26 @@
       <c r="H93" t="s">
         <v>499</v>
       </c>
-      <c r="J93" s="80" t="s">
+      <c r="J93" s="66" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B94" s="59"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="59"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="65"/>
       <c r="E94">
         <v>2</v>
       </c>
       <c r="F94" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="J94" s="80"/>
+      <c r="J94" s="66"/>
     </row>
     <row r="95" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B95" s="59"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="59"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="65"/>
       <c r="E95">
         <v>3</v>
       </c>
@@ -7391,16 +7962,16 @@
       <c r="I95" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="J95" s="80"/>
+      <c r="J95" s="66"/>
     </row>
     <row r="96" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="59" t="s">
+      <c r="B96" s="65" t="s">
         <v>262</v>
       </c>
-      <c r="C96" s="66" t="s">
+      <c r="C96" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="D96" s="59" t="s">
+      <c r="D96" s="65" t="s">
         <v>501</v>
       </c>
       <c r="E96">
@@ -7412,14 +7983,14 @@
       <c r="G96" t="s">
         <v>498</v>
       </c>
-      <c r="J96" s="80" t="s">
+      <c r="J96" s="66" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="97" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B97" s="59"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="59"/>
+    <row r="97" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B97" s="65"/>
+      <c r="C97" s="59"/>
+      <c r="D97" s="65"/>
       <c r="E97">
         <v>2</v>
       </c>
@@ -7432,16 +8003,16 @@
       <c r="I97" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="J97" s="80"/>
-    </row>
-    <row r="98" spans="2:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="59" t="s">
+      <c r="J97" s="66"/>
+    </row>
+    <row r="98" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="65" t="s">
         <v>523</v>
       </c>
-      <c r="C98" s="66" t="s">
+      <c r="C98" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="D98" s="59" t="s">
+      <c r="D98" s="65" t="s">
         <v>510</v>
       </c>
       <c r="E98">
@@ -7450,14 +8021,14 @@
       <c r="F98" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="J98" s="80" t="s">
+      <c r="J98" s="66" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B99" s="59"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="59"/>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B99" s="65"/>
+      <c r="C99" s="59"/>
+      <c r="D99" s="65"/>
       <c r="E99">
         <v>2</v>
       </c>
@@ -7473,12 +8044,12 @@
       <c r="I99" t="s">
         <v>519</v>
       </c>
-      <c r="J99" s="80"/>
-    </row>
-    <row r="100" spans="2:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="B100" s="59"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="59"/>
+      <c r="J99" s="66"/>
+    </row>
+    <row r="100" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="B100" s="65"/>
+      <c r="C100" s="59"/>
+      <c r="D100" s="65"/>
       <c r="E100">
         <v>3</v>
       </c>
@@ -7494,10 +8065,907 @@
       <c r="I100" s="20" t="s">
         <v>522</v>
       </c>
-      <c r="J100" s="80"/>
+      <c r="J100" s="66"/>
+    </row>
+    <row r="101" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="30" t="s">
+        <v>733</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>266</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D101" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="G101" s="20" t="s">
+        <v>643</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="I101" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="J101" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102"/>
+      <c r="B102" s="20"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
+        <v>646</v>
+      </c>
+      <c r="G102" s="20" t="s">
+        <v>647</v>
+      </c>
+      <c r="H102" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="I102" t="s">
+        <v>648</v>
+      </c>
+      <c r="J102"/>
+    </row>
+    <row r="103" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A103"/>
+      <c r="B103" s="20"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103" t="s">
+        <v>649</v>
+      </c>
+      <c r="G103" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="H103" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="I103" t="s">
+        <v>651</v>
+      </c>
+      <c r="J103"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104"/>
+      <c r="B104" s="20"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>652</v>
+      </c>
+      <c r="G104" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="H104" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="I104" t="s">
+        <v>654</v>
+      </c>
+      <c r="J104"/>
+    </row>
+    <row r="105" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105"/>
+      <c r="B105" s="20"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105">
+        <v>5</v>
+      </c>
+      <c r="F105" t="s">
+        <v>655</v>
+      </c>
+      <c r="G105" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="H105" s="20" t="s">
+        <v>732</v>
+      </c>
+      <c r="I105" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="J105"/>
+    </row>
+    <row r="106" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>734</v>
+      </c>
+      <c r="B106" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D106" s="30" t="s">
+        <v>657</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" s="20" t="s">
+        <v>658</v>
+      </c>
+      <c r="H106" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="J106" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107"/>
+      <c r="B107" s="20"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="G107" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="H107" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>648</v>
+      </c>
+      <c r="J107"/>
+    </row>
+    <row r="108" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A108"/>
+      <c r="B108" s="20"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108">
+        <v>3</v>
+      </c>
+      <c r="F108" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G108" s="20" t="s">
+        <v>661</v>
+      </c>
+      <c r="H108" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="I108" s="20" t="s">
+        <v>662</v>
+      </c>
+      <c r="J108"/>
+    </row>
+    <row r="109" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>735</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D109" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="H109" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="I109" s="20" t="s">
+        <v>645</v>
+      </c>
+      <c r="J109" s="54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110"/>
+      <c r="B110" s="20"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>665</v>
+      </c>
+      <c r="G110" t="s">
+        <v>666</v>
+      </c>
+      <c r="H110" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="I110" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="J110"/>
+    </row>
+    <row r="111" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A111"/>
+      <c r="B111" s="20"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G111" t="s">
+        <v>661</v>
+      </c>
+      <c r="H111" s="20" t="s">
+        <v>667</v>
+      </c>
+      <c r="I111" s="20" t="s">
+        <v>668</v>
+      </c>
+      <c r="J111"/>
+    </row>
+    <row r="112" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>736</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D112" s="30" t="s">
+        <v>669</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" s="20" t="s">
+        <v>664</v>
+      </c>
+      <c r="H112" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="I112" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="J112" s="54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113"/>
+      <c r="B113" s="20"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="G113" t="s">
+        <v>672</v>
+      </c>
+      <c r="H113" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="I113" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="J113"/>
+    </row>
+    <row r="114" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A114"/>
+      <c r="B114" s="20"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="G114" t="s">
+        <v>661</v>
+      </c>
+      <c r="H114" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="I114" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="J114"/>
+    </row>
+    <row r="115" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>737</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D115" s="30" t="s">
+        <v>675</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>676</v>
+      </c>
+      <c r="H115" s="20" t="s">
+        <v>644</v>
+      </c>
+      <c r="I115" s="20" t="s">
+        <v>670</v>
+      </c>
+      <c r="J115" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116"/>
+      <c r="B116" s="20"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116" s="20" t="s">
+        <v>677</v>
+      </c>
+      <c r="G116" t="s">
+        <v>678</v>
+      </c>
+      <c r="H116" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="I116" t="s">
+        <v>680</v>
+      </c>
+      <c r="J116"/>
+    </row>
+    <row r="117" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A117"/>
+      <c r="B117" s="20"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="G117" t="s">
+        <v>661</v>
+      </c>
+      <c r="H117" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="I117" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="J117"/>
+    </row>
+    <row r="118" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>738</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D118" s="30" t="s">
+        <v>683</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>684</v>
+      </c>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="I118" s="20" t="s">
+        <v>686</v>
+      </c>
+      <c r="J118" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A119"/>
+      <c r="B119" s="20"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119">
+        <v>2</v>
+      </c>
+      <c r="F119" s="20" t="s">
+        <v>687</v>
+      </c>
+      <c r="G119" s="20" t="s">
+        <v>688</v>
+      </c>
+      <c r="H119" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="I119" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="J119" s="86"/>
+    </row>
+    <row r="120" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>739</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D120" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>691</v>
+      </c>
+      <c r="H120" s="20" t="s">
+        <v>685</v>
+      </c>
+      <c r="I120" s="20" t="s">
+        <v>692</v>
+      </c>
+      <c r="J120" s="86" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A121"/>
+      <c r="B121" s="20"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121">
+        <v>2</v>
+      </c>
+      <c r="F121" s="20" t="s">
+        <v>693</v>
+      </c>
+      <c r="G121" t="s">
+        <v>694</v>
+      </c>
+      <c r="H121" s="20" t="s">
+        <v>695</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>689</v>
+      </c>
+      <c r="J121"/>
+    </row>
+    <row r="122" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>740</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>741</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D122" s="30" t="s">
+        <v>696</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" s="20" t="s">
+        <v>697</v>
+      </c>
+      <c r="G122" s="20"/>
+      <c r="H122" s="20" t="s">
+        <v>698</v>
+      </c>
+      <c r="I122" s="20" t="s">
+        <v>699</v>
+      </c>
+      <c r="J122" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A123"/>
+      <c r="B123" s="20"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123">
+        <v>2</v>
+      </c>
+      <c r="F123" s="20" t="s">
+        <v>700</v>
+      </c>
+      <c r="G123" s="20" t="s">
+        <v>701</v>
+      </c>
+      <c r="H123" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="I123" s="20" t="s">
+        <v>703</v>
+      </c>
+      <c r="J123"/>
+    </row>
+    <row r="124" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>742</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D124" s="30" t="s">
+        <v>704</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+      <c r="F124" s="20" t="s">
+        <v>705</v>
+      </c>
+      <c r="G124" s="20"/>
+      <c r="H124" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="I124" s="20" t="s">
+        <v>707</v>
+      </c>
+      <c r="J124" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A125"/>
+      <c r="B125" s="20"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125">
+        <v>2</v>
+      </c>
+      <c r="F125" s="20" t="s">
+        <v>708</v>
+      </c>
+      <c r="G125" s="20" t="s">
+        <v>709</v>
+      </c>
+      <c r="H125" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="I125" s="20" t="s">
+        <v>710</v>
+      </c>
+      <c r="J125"/>
+    </row>
+    <row r="126" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>743</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>627</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D126" s="30" t="s">
+        <v>711</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="I126" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="J126" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127"/>
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127">
+        <v>2</v>
+      </c>
+      <c r="F127" t="s">
+        <v>715</v>
+      </c>
+      <c r="G127" t="s">
+        <v>716</v>
+      </c>
+      <c r="H127" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="I127" s="20" t="s">
+        <v>717</v>
+      </c>
+      <c r="J127"/>
+    </row>
+    <row r="128" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>744</v>
+      </c>
+      <c r="B128" t="s">
+        <v>275</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D128" s="30" t="s">
+        <v>718</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" s="20" t="s">
+        <v>719</v>
+      </c>
+      <c r="H128" s="20" t="s">
+        <v>720</v>
+      </c>
+      <c r="I128" s="20" t="s">
+        <v>721</v>
+      </c>
+      <c r="J128" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129">
+        <v>2</v>
+      </c>
+      <c r="F129" s="20" t="s">
+        <v>722</v>
+      </c>
+      <c r="G129" t="s">
+        <v>723</v>
+      </c>
+      <c r="H129" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="I129" s="20" t="s">
+        <v>724</v>
+      </c>
+      <c r="J129"/>
+    </row>
+    <row r="130" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>745</v>
+      </c>
+      <c r="B130" t="s">
+        <v>628</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="D130" s="30" t="s">
+        <v>725</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" s="20" t="s">
+        <v>726</v>
+      </c>
+      <c r="H130" s="20" t="s">
+        <v>727</v>
+      </c>
+      <c r="I130" s="20" t="s">
+        <v>728</v>
+      </c>
+      <c r="J130" s="86" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A131"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131">
+        <v>2</v>
+      </c>
+      <c r="F131" s="20" t="s">
+        <v>729</v>
+      </c>
+      <c r="G131" t="s">
+        <v>730</v>
+      </c>
+      <c r="H131" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="I131" s="20" t="s">
+        <v>731</v>
+      </c>
+      <c r="J131"/>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A132"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="F132"/>
+      <c r="J132"/>
     </row>
   </sheetData>
   <mergeCells count="132">
+    <mergeCell ref="J39:J44"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="J3:J8"/>
+    <mergeCell ref="J9:J14"/>
+    <mergeCell ref="J15:J20"/>
+    <mergeCell ref="J21:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="D52:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A9:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="B15:B20"/>
+    <mergeCell ref="C15:C20"/>
+    <mergeCell ref="D15:D20"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D3:D8"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C39:C44"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="J85:J86"/>
+    <mergeCell ref="D85:D86"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="J89:J90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="D89:D90"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="J93:J95"/>
+    <mergeCell ref="D93:D95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="B93:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="J96:J97"/>
     <mergeCell ref="A78:A79"/>
     <mergeCell ref="B78:B79"/>
     <mergeCell ref="F78:F79"/>
@@ -7514,122 +8982,6 @@
     <mergeCell ref="C60:C61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="J60:J61"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="J93:J95"/>
-    <mergeCell ref="D93:D95"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="B93:B95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="J89:J90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="D89:D90"/>
-    <mergeCell ref="J85:J86"/>
-    <mergeCell ref="D85:D86"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="D39:D44"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="B15:B20"/>
-    <mergeCell ref="C15:C20"/>
-    <mergeCell ref="D15:D20"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="J39:J44"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="J3:J8"/>
-    <mergeCell ref="J9:J14"/>
-    <mergeCell ref="J15:J20"/>
-    <mergeCell ref="J21:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
@@ -7642,10 +8994,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBB982B-902A-43BA-8648-421444C00694}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A17" zoomScale="66" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7657,7 +9009,7 @@
     <col min="5" max="5" width="31.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="8" max="8" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="55.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7908,7 +9260,7 @@
       <c r="C10" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="57" t="s">
         <v>626</v>
       </c>
       <c r="E10" t="s">
@@ -7956,7 +9308,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B13" s="36"/>
     </row>
-    <row r="20" spans="2:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>512</v>
       </c>
@@ -7976,7 +9328,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="87" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" ht="87" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>512</v>
       </c>
@@ -7994,6 +9346,85 @@
       </c>
       <c r="H21" t="s">
         <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="93" x14ac:dyDescent="0.35">
+      <c r="A24" s="87" t="s">
+        <v>756</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>746</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>747</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>748</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>749</v>
+      </c>
+      <c r="F24" s="91" t="s">
+        <v>401</v>
+      </c>
+      <c r="G24" s="88"/>
+      <c r="H24" s="92" t="s">
+        <v>750</v>
+      </c>
+      <c r="I24" s="92" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="87" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>757</v>
+      </c>
+      <c r="B25" t="s">
+        <v>746</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>751</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>752</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>749</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>750</v>
+      </c>
+      <c r="I25" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>758</v>
+      </c>
+      <c r="B26" t="s">
+        <v>746</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>754</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>753</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>401</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>755</v>
+      </c>
+      <c r="I26" t="e" vm="3">
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
